--- a/predictions полгода до/Прогнозы_GP_lin_Per.xlsx
+++ b/predictions полгода до/Прогнозы_GP_lin_Per.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M77"/>
+  <dimension ref="A1:M51"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -446,40 +446,40 @@
         </is>
       </c>
       <c r="B1" s="2" t="n">
-        <v>45108</v>
+        <v>45139</v>
       </c>
       <c r="C1" s="2" t="n">
-        <v>45139</v>
+        <v>45170</v>
       </c>
       <c r="D1" s="2" t="n">
-        <v>45170</v>
+        <v>45200</v>
       </c>
       <c r="E1" s="2" t="n">
-        <v>45200</v>
+        <v>45231</v>
       </c>
       <c r="F1" s="2" t="n">
-        <v>45231</v>
+        <v>45261</v>
       </c>
       <c r="G1" s="2" t="n">
-        <v>45261</v>
+        <v>45292</v>
       </c>
       <c r="H1" s="2" t="n">
-        <v>45292</v>
+        <v>45323</v>
       </c>
       <c r="I1" s="2" t="n">
-        <v>45323</v>
+        <v>45352</v>
       </c>
       <c r="J1" s="2" t="n">
-        <v>45352</v>
+        <v>45383</v>
       </c>
       <c r="K1" s="2" t="n">
-        <v>45383</v>
+        <v>45413</v>
       </c>
       <c r="L1" s="2" t="n">
-        <v>45413</v>
+        <v>45444</v>
       </c>
       <c r="M1" s="2" t="n">
-        <v>45444</v>
+        <v>45474</v>
       </c>
     </row>
     <row r="2">
@@ -489,40 +489,40 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>23309570.52756763</v>
+        <v>21153901.80715895</v>
       </c>
       <c r="C2" t="n">
-        <v>23795186.58022523</v>
+        <v>21492904.19002247</v>
       </c>
       <c r="D2" t="n">
-        <v>24280802.63288307</v>
+        <v>21831906.57288647</v>
       </c>
       <c r="E2" t="n">
-        <v>24766418.6855402</v>
+        <v>22170908.95574903</v>
       </c>
       <c r="F2" t="n">
-        <v>25252034.73819828</v>
+        <v>22509911.33861208</v>
       </c>
       <c r="G2" t="n">
-        <v>25737650.79085588</v>
+        <v>22848913.72147608</v>
       </c>
       <c r="H2" t="n">
-        <v>26223266.8435142</v>
+        <v>23187916.10433936</v>
       </c>
       <c r="I2" t="n">
-        <v>26708882.89617181</v>
+        <v>23526918.48720264</v>
       </c>
       <c r="J2" t="n">
-        <v>27194498.94882894</v>
+        <v>23865920.87006593</v>
       </c>
       <c r="K2" t="n">
-        <v>27680115.00148654</v>
+        <v>24204923.25292969</v>
       </c>
       <c r="L2" t="n">
-        <v>28165731.05414486</v>
+        <v>24543925.63579369</v>
       </c>
       <c r="M2" t="n">
-        <v>28651347.10680199</v>
+        <v>24882928.01865721</v>
       </c>
     </row>
     <row r="3">
@@ -532,3222 +532,2104 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>3495731.219801664</v>
+        <v>3835500.934251308</v>
       </c>
       <c r="C3" t="n">
-        <v>3568558.953547239</v>
+        <v>3915407.203714848</v>
       </c>
       <c r="D3" t="n">
-        <v>3641386.687293053</v>
+        <v>3995313.473178625</v>
       </c>
       <c r="E3" t="n">
-        <v>3714214.421039343</v>
+        <v>4075219.742641926</v>
       </c>
       <c r="F3" t="n">
-        <v>3787042.154784679</v>
+        <v>4155126.012105227</v>
       </c>
       <c r="G3" t="n">
-        <v>3859869.888530731</v>
+        <v>4235032.281569004</v>
       </c>
       <c r="H3" t="n">
-        <v>3932697.622277021</v>
+        <v>4314938.551032066</v>
       </c>
       <c r="I3" t="n">
-        <v>4005525.356022835</v>
+        <v>4394844.820496082</v>
       </c>
       <c r="J3" t="n">
-        <v>4078353.08976841</v>
+        <v>4474751.089960098</v>
       </c>
       <c r="K3" t="n">
-        <v>4151180.823514462</v>
+        <v>4554657.359423399</v>
       </c>
       <c r="L3" t="n">
-        <v>4224008.557260036</v>
+        <v>4634563.628887177</v>
       </c>
       <c r="M3" t="n">
-        <v>4296836.291006088</v>
+        <v>4714469.898350716</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>ИПР Актобе (Kz)</t>
+          <t>Отдел Ковригин  (Kz)</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>2186335.577320397</v>
+        <v>3050542.809297442</v>
       </c>
       <c r="C4" t="n">
-        <v>2231884.235181183</v>
+        <v>3114095.784491181</v>
       </c>
       <c r="D4" t="n">
-        <v>2277432.893042058</v>
+        <v>3177648.75968492</v>
       </c>
       <c r="E4" t="n">
-        <v>2322981.550902873</v>
+        <v>3241201.734878659</v>
       </c>
       <c r="F4" t="n">
-        <v>2368530.208763719</v>
+        <v>3304754.710072279</v>
       </c>
       <c r="G4" t="n">
-        <v>2414078.866624504</v>
+        <v>3368307.685265899</v>
       </c>
       <c r="H4" t="n">
-        <v>2459627.524485379</v>
+        <v>3431860.660459518</v>
       </c>
       <c r="I4" t="n">
-        <v>2505176.182346255</v>
+        <v>3495413.635653377</v>
       </c>
       <c r="J4" t="n">
-        <v>2550724.84020713</v>
+        <v>3558966.610846996</v>
       </c>
       <c r="K4" t="n">
-        <v>2596273.498067975</v>
+        <v>3622519.586040974</v>
       </c>
       <c r="L4" t="n">
-        <v>2641822.155928731</v>
+        <v>3686072.561234474</v>
       </c>
       <c r="M4" t="n">
-        <v>2687370.813789666</v>
+        <v>3749625.536428213</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>ИПР Павлодар (Kz)</t>
+          <t>Отдел Концевой</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>199945.6167332828</v>
+        <v>20406047.77377319</v>
       </c>
       <c r="C5" t="n">
-        <v>204111.1504152119</v>
+        <v>20831173.76906395</v>
       </c>
       <c r="D5" t="n">
-        <v>208276.6840971634</v>
+        <v>21256299.76434898</v>
       </c>
       <c r="E5" t="n">
-        <v>212442.2177791148</v>
+        <v>21681425.7596302</v>
       </c>
       <c r="F5" t="n">
-        <v>216607.7514610291</v>
+        <v>22106551.75492096</v>
       </c>
       <c r="G5" t="n">
-        <v>220773.2851430029</v>
+        <v>22531677.7502079</v>
       </c>
       <c r="H5" t="n">
-        <v>224938.818824932</v>
+        <v>22956803.74549675</v>
       </c>
       <c r="I5" t="n">
-        <v>229104.3525068909</v>
+        <v>23381929.74078178</v>
       </c>
       <c r="J5" t="n">
-        <v>233269.8861888051</v>
+        <v>23807055.73607445</v>
       </c>
       <c r="K5" t="n">
-        <v>237435.419870764</v>
+        <v>24232181.73135948</v>
       </c>
       <c r="L5" t="n">
-        <v>241600.953552708</v>
+        <v>24657307.72664261</v>
       </c>
       <c r="M5" t="n">
-        <v>245766.487234652</v>
+        <v>25082433.72192764</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>ИПР Апатиты</t>
+          <t>Отдел Мараев (АлРоса)</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>8754776.563648552</v>
+        <v>3399508.164406967</v>
       </c>
       <c r="C6" t="n">
-        <v>8937167.742057681</v>
+        <v>3399523.463227853</v>
       </c>
       <c r="D6" t="n">
-        <v>9119558.920467138</v>
+        <v>3399538.433270073</v>
       </c>
       <c r="E6" t="n">
-        <v>9301950.098876804</v>
+        <v>3399553.074444969</v>
       </c>
       <c r="F6" t="n">
-        <v>9484341.277285904</v>
+        <v>3399567.386665828</v>
       </c>
       <c r="G6" t="n">
-        <v>9666732.455695197</v>
+        <v>3399581.369847891</v>
       </c>
       <c r="H6" t="n">
-        <v>9849123.634104535</v>
+        <v>3399595.023908357</v>
       </c>
       <c r="I6" t="n">
-        <v>10031514.81251357</v>
+        <v>3399608.348766364</v>
       </c>
       <c r="J6" t="n">
-        <v>10213905.99092332</v>
+        <v>3399621.344343023</v>
       </c>
       <c r="K6" t="n">
-        <v>10396297.1693325</v>
+        <v>3399634.010561387</v>
       </c>
       <c r="L6" t="n">
-        <v>10578688.34774196</v>
+        <v>3399646.347346473</v>
       </c>
       <c r="M6" t="n">
-        <v>10761079.52615142</v>
+        <v>3399658.354625247</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>ИПР Балаково</t>
+          <t>Отдел Мищенко (МетИнв)</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2547679.79147692</v>
+        <v>4981387.422559381</v>
       </c>
       <c r="C7" t="n">
-        <v>2583547.891278006</v>
+        <v>5085166.327195883</v>
       </c>
       <c r="D7" t="n">
-        <v>2619415.991079032</v>
+        <v>5188945.231832385</v>
       </c>
       <c r="E7" t="n">
-        <v>2655284.090880059</v>
+        <v>5292724.136469126</v>
       </c>
       <c r="F7" t="n">
-        <v>2691152.19068113</v>
+        <v>5396503.041105747</v>
       </c>
       <c r="G7" t="n">
-        <v>2727020.290482178</v>
+        <v>5500281.945742369</v>
       </c>
       <c r="H7" t="n">
-        <v>2762888.390283264</v>
+        <v>5604060.850379229</v>
       </c>
       <c r="I7" t="n">
-        <v>2798756.490084313</v>
+        <v>5707839.755015731</v>
       </c>
       <c r="J7" t="n">
-        <v>2834624.589885391</v>
+        <v>5811618.659652472</v>
       </c>
       <c r="K7" t="n">
-        <v>2870492.689686432</v>
+        <v>5915397.564289093</v>
       </c>
       <c r="L7" t="n">
-        <v>2906360.789487451</v>
+        <v>6019176.468925714</v>
       </c>
       <c r="M7" t="n">
-        <v>2942228.889288515</v>
+        <v>6122955.373562336</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>ИПР Волхов ФСА</t>
+          <t>Отдел Попов</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1526331.119410917</v>
+        <v>18100695.86799026</v>
       </c>
       <c r="C8" t="n">
-        <v>1558129.684398606</v>
+        <v>18195051.64109194</v>
       </c>
       <c r="D8" t="n">
-        <v>1589928.249386355</v>
+        <v>18289407.27414441</v>
       </c>
       <c r="E8" t="n">
-        <v>1621726.814374052</v>
+        <v>18383762.76732945</v>
       </c>
       <c r="F8" t="n">
-        <v>1653525.379361831</v>
+        <v>18478118.12083411</v>
       </c>
       <c r="G8" t="n">
-        <v>1685323.944349542</v>
+        <v>18572473.3348465</v>
       </c>
       <c r="H8" t="n">
-        <v>1717122.509337276</v>
+        <v>18666828.40955877</v>
       </c>
       <c r="I8" t="n">
-        <v>1748921.074324958</v>
+        <v>18761183.34516954</v>
       </c>
       <c r="J8" t="n">
-        <v>1780719.639312692</v>
+        <v>18855538.14187813</v>
       </c>
       <c r="K8" t="n">
-        <v>1812518.204300448</v>
+        <v>18949892.79988766</v>
       </c>
       <c r="L8" t="n">
-        <v>1844316.769288175</v>
+        <v>19044247.31940532</v>
       </c>
       <c r="M8" t="n">
-        <v>1876115.334275924</v>
+        <v>19138601.70064402</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>ИПР Еврохим УКК</t>
+          <t>Отдел Филиппов</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>9.187444386569894e-308</v>
+        <v>26346444.6051569</v>
       </c>
       <c r="C9" t="n">
-        <v>9.378849477956767e-308</v>
+        <v>26380090.42703152</v>
       </c>
       <c r="D9" t="n">
-        <v>9.57025456934364e-308</v>
+        <v>27383752.86204672</v>
       </c>
       <c r="E9" t="n">
-        <v>9.761659660730515e-308</v>
+        <v>27786168.36465406</v>
       </c>
       <c r="F9" t="n">
-        <v>9.953064752117386e-308</v>
+        <v>28089406.0519824</v>
       </c>
       <c r="G9" t="n">
-        <v>1.014446984350426e-307</v>
+        <v>28910834.92967796</v>
       </c>
       <c r="H9" t="n">
-        <v>1.033587493489113e-307</v>
+        <v>29122761.75626183</v>
       </c>
       <c r="I9" t="n">
-        <v>1.052728002627801e-307</v>
+        <v>29888840.90800571</v>
       </c>
       <c r="J9" t="n">
-        <v>1.071868511766488e-307</v>
+        <v>30486217.06715679</v>
       </c>
       <c r="K9" t="n">
-        <v>1.091009020905175e-307</v>
+        <v>30520490.38953447</v>
       </c>
       <c r="L9" t="n">
-        <v>1.110149530043862e-307</v>
+        <v>31528888.10921192</v>
       </c>
       <c r="M9" t="n">
-        <v>1.12929003918255e-307</v>
+        <v>31982103.66799402</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>ИПР Череповец ФСА</t>
+          <t>Отдел Шугай (Русал)</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>4486255.372958183</v>
+        <v>4970977.035270691</v>
       </c>
       <c r="C10" t="n">
-        <v>4545371.43070662</v>
+        <v>5074539.056839943</v>
       </c>
       <c r="D10" t="n">
-        <v>4604487.488455176</v>
+        <v>5178101.078408241</v>
       </c>
       <c r="E10" t="n">
-        <v>4663603.546203792</v>
+        <v>5281663.099975586</v>
       </c>
       <c r="F10" t="n">
-        <v>4722719.60395211</v>
+        <v>5385225.121544838</v>
       </c>
       <c r="G10" t="n">
-        <v>4781835.661700606</v>
+        <v>5488787.143111229</v>
       </c>
       <c r="H10" t="n">
-        <v>4840951.719448984</v>
+        <v>5592349.164679527</v>
       </c>
       <c r="I10" t="n">
-        <v>4900067.777197659</v>
+        <v>5695911.186248779</v>
       </c>
       <c r="J10" t="n">
-        <v>4959183.834945977</v>
+        <v>5799473.207816124</v>
       </c>
       <c r="K10" t="n">
-        <v>5018299.892694414</v>
+        <v>5903035.229384422</v>
       </c>
       <c r="L10" t="n">
-        <v>5077415.95044297</v>
+        <v>6006597.250951767</v>
       </c>
       <c r="M10" t="n">
-        <v>5136532.008191466</v>
+        <v>6110159.272521019</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>ИПР Алроса</t>
+          <t>Отдел Ясиновер (УГМК)</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>4187540.67996335</v>
+        <v>12556776.56696604</v>
       </c>
       <c r="C11" t="n">
-        <v>4286693.697667122</v>
+        <v>12438581.37685253</v>
       </c>
       <c r="D11" t="n">
-        <v>4385846.715370655</v>
+        <v>12202646.85968277</v>
       </c>
       <c r="E11" t="n">
-        <v>4484999.733074069</v>
+        <v>11892236.27085917</v>
       </c>
       <c r="F11" t="n">
-        <v>4584152.750778198</v>
+        <v>11556656.57181169</v>
       </c>
       <c r="G11" t="n">
-        <v>4683305.768482208</v>
+        <v>11241454.71522392</v>
       </c>
       <c r="H11" t="n">
-        <v>4782458.786185026</v>
+        <v>10981097.47642721</v>
       </c>
       <c r="I11" t="n">
-        <v>4881611.803889275</v>
+        <v>10795567.46747187</v>
       </c>
       <c r="J11" t="n">
-        <v>4980764.82159245</v>
+        <v>10690798.15310536</v>
       </c>
       <c r="K11" t="n">
-        <v>5079917.839296937</v>
+        <v>10661795.97183345</v>
       </c>
       <c r="L11" t="n">
-        <v>5179070.856999636</v>
+        <v>10696901.55179067</v>
       </c>
       <c r="M11" t="n">
-        <v>5278223.874703884</v>
+        <v>10781843.16933829</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>ИПР ММК</t>
+          <t>Менеджер ОРСТП 1</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>1483589.08747869</v>
+        <v>37756535.54940462</v>
       </c>
       <c r="C12" t="n">
-        <v>1473814.526424737</v>
+        <v>38014402.80028915</v>
       </c>
       <c r="D12" t="n">
-        <v>1464039.97040229</v>
+        <v>38263663.00639462</v>
       </c>
       <c r="E12" t="n">
-        <v>1454265.422387167</v>
+        <v>38509797.39650989</v>
       </c>
       <c r="F12" t="n">
-        <v>1444490.868347533</v>
+        <v>38759206.22070014</v>
       </c>
       <c r="G12" t="n">
-        <v>1434716.308727539</v>
+        <v>39017325.40464735</v>
       </c>
       <c r="H12" t="n">
-        <v>1424941.74761438</v>
+        <v>39287027.44135547</v>
       </c>
       <c r="I12" t="n">
-        <v>1415167.193683051</v>
+        <v>39567775.92153287</v>
       </c>
       <c r="J12" t="n">
-        <v>1405392.647477702</v>
+        <v>39855782.37959695</v>
       </c>
       <c r="K12" t="n">
-        <v>1395618.09572302</v>
+        <v>40145120.45454478</v>
       </c>
       <c r="L12" t="n">
-        <v>1385843.541219122</v>
+        <v>40429470.65133202</v>
       </c>
       <c r="M12" t="n">
-        <v>1376068.984234123</v>
+        <v>40703982.03866267</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>ИПР Лебединский ГОК</t>
+          <t>Менеджер ОРСТП 2</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>624783.0515317321</v>
+        <v>40235343.54741676</v>
       </c>
       <c r="C13" t="n">
-        <v>640953.5254093707</v>
+        <v>40505547.82477842</v>
       </c>
       <c r="D13" t="n">
-        <v>657194.7064229548</v>
+        <v>40775752.10214042</v>
       </c>
       <c r="E13" t="n">
-        <v>673596.9385122955</v>
+        <v>41045956.37950165</v>
       </c>
       <c r="F13" t="n">
-        <v>690178.2086512446</v>
+        <v>41316160.65686366</v>
       </c>
       <c r="G13" t="n">
-        <v>706876.0355689228</v>
+        <v>41586364.93422478</v>
       </c>
       <c r="H13" t="n">
-        <v>723575.4726489782</v>
+        <v>41856569.21158686</v>
       </c>
       <c r="I13" t="n">
-        <v>740160.7806070447</v>
+        <v>42126773.48894814</v>
       </c>
       <c r="J13" t="n">
-        <v>756567.5734489262</v>
+        <v>42396977.76631001</v>
       </c>
       <c r="K13" t="n">
-        <v>772811.8145874441</v>
+        <v>42667182.04367162</v>
       </c>
       <c r="L13" t="n">
-        <v>788982.5735026002</v>
+        <v>42937386.32103332</v>
       </c>
       <c r="M13" t="n">
-        <v>805201.8923250139</v>
+        <v>43207590.59839479</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>ИПР Металлоинвест</t>
+          <t>ОПП Владивосток</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1417933.933504641</v>
+        <v>255872.1012383103</v>
       </c>
       <c r="C14" t="n">
-        <v>1447474.223786056</v>
+        <v>261202.7700141221</v>
       </c>
       <c r="D14" t="n">
-        <v>1477014.514067262</v>
+        <v>266533.4387899339</v>
       </c>
       <c r="E14" t="n">
-        <v>1506554.804348648</v>
+        <v>271864.1075657308</v>
       </c>
       <c r="F14" t="n">
-        <v>1536095.094630092</v>
+        <v>277194.7763415277</v>
       </c>
       <c r="G14" t="n">
-        <v>1565635.384911358</v>
+        <v>282525.4451173097</v>
       </c>
       <c r="H14" t="n">
-        <v>1595175.675192684</v>
+        <v>287856.1138931215</v>
       </c>
       <c r="I14" t="n">
-        <v>1624715.96547401</v>
+        <v>293186.7826689184</v>
       </c>
       <c r="J14" t="n">
-        <v>1654256.255755395</v>
+        <v>298517.4514447004</v>
       </c>
       <c r="K14" t="n">
-        <v>1683796.54603681</v>
+        <v>303848.1202205122</v>
       </c>
       <c r="L14" t="n">
-        <v>1713336.836318046</v>
+        <v>309178.7889962792</v>
       </c>
       <c r="M14" t="n">
-        <v>1742877.126599431</v>
+        <v>314509.4577721208</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>ИПР Михайловский ГОК</t>
+          <t>ОПП Воронеж</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>383121.749859035</v>
+        <v>3466404.034199893</v>
       </c>
       <c r="C15" t="n">
-        <v>392807.9154568315</v>
+        <v>3538620.784912437</v>
       </c>
       <c r="D15" t="n">
-        <v>402493.6691007912</v>
+        <v>3610837.535625011</v>
       </c>
       <c r="E15" t="n">
-        <v>412184.8213863671</v>
+        <v>3683054.286337316</v>
       </c>
       <c r="F15" t="n">
-        <v>421882.0085412413</v>
+        <v>3755271.037049711</v>
       </c>
       <c r="G15" t="n">
-        <v>431580.082846269</v>
+        <v>3827487.787762374</v>
       </c>
       <c r="H15" t="n">
-        <v>441273.0457868576</v>
+        <v>3899704.538474858</v>
       </c>
       <c r="I15" t="n">
-        <v>450959.7980683297</v>
+        <v>3971921.289187431</v>
       </c>
       <c r="J15" t="n">
-        <v>460645.1936239004</v>
+        <v>4044138.039899737</v>
       </c>
       <c r="K15" t="n">
-        <v>470335.3863377273</v>
+        <v>4116354.790612429</v>
       </c>
       <c r="L15" t="n">
-        <v>480031.9320917726</v>
+        <v>4188571.541324973</v>
       </c>
       <c r="M15" t="n">
-        <v>489730.2979436815</v>
+        <v>4260788.292037368</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>ИПР ОЭМК</t>
+          <t>ОПП Казань+Чувашия</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>348334.8480323553</v>
+        <v>9662010.323102713</v>
       </c>
       <c r="C16" t="n">
-        <v>355591.8240330219</v>
+        <v>9863302.204833984</v>
       </c>
       <c r="D16" t="n">
-        <v>362848.8000337183</v>
+        <v>10064594.08656478</v>
       </c>
       <c r="E16" t="n">
-        <v>370105.776034385</v>
+        <v>10265885.96829641</v>
       </c>
       <c r="F16" t="n">
-        <v>377362.7520350814</v>
+        <v>10467177.85002768</v>
       </c>
       <c r="G16" t="n">
-        <v>384619.728035748</v>
+        <v>10668469.73175907</v>
       </c>
       <c r="H16" t="n">
-        <v>391876.7040364146</v>
+        <v>10869761.61349046</v>
       </c>
       <c r="I16" t="n">
-        <v>399133.6800370514</v>
+        <v>11071053.49522197</v>
       </c>
       <c r="J16" t="n">
-        <v>406390.6560377479</v>
+        <v>11272345.37695277</v>
       </c>
       <c r="K16" t="n">
-        <v>413647.6320384145</v>
+        <v>11473637.25868416</v>
       </c>
       <c r="L16" t="n">
-        <v>420904.6080390513</v>
+        <v>11674929.14041603</v>
       </c>
       <c r="M16" t="n">
-        <v>428161.5840398073</v>
+        <v>11876221.02214718</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>ИПР Уральская Сталь</t>
+          <t>ОПП Краснодар</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1949473.101375103</v>
+        <v>4878400.992088467</v>
       </c>
       <c r="C17" t="n">
-        <v>1990087.124320388</v>
+        <v>4998626.551322877</v>
       </c>
       <c r="D17" t="n">
-        <v>2030701.147265792</v>
+        <v>5118852.110557258</v>
       </c>
       <c r="E17" t="n">
-        <v>2071315.170211017</v>
+        <v>5239077.669791639</v>
       </c>
       <c r="F17" t="n">
-        <v>2111929.193156362</v>
+        <v>5359303.22902596</v>
       </c>
       <c r="G17" t="n">
-        <v>2152543.216101706</v>
+        <v>5479528.7882604</v>
       </c>
       <c r="H17" t="n">
-        <v>2193157.239046991</v>
+        <v>5599754.347494543</v>
       </c>
       <c r="I17" t="n">
-        <v>2233771.261992335</v>
+        <v>5719979.906729043</v>
       </c>
       <c r="J17" t="n">
-        <v>2274385.284937561</v>
+        <v>5840205.465963304</v>
       </c>
       <c r="K17" t="n">
-        <v>2314999.307883024</v>
+        <v>5960431.025197446</v>
       </c>
       <c r="L17" t="n">
-        <v>2355613.330828309</v>
+        <v>6080656.584432065</v>
       </c>
       <c r="M17" t="n">
-        <v>2396227.353773534</v>
+        <v>6200882.143666208</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>ИПР Воркута</t>
+          <t>ОПП Красноярск</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>1752433.416321754</v>
+        <v>4185156.310723841</v>
       </c>
       <c r="C18" t="n">
-        <v>1788942.445828408</v>
+        <v>4257501.462506175</v>
       </c>
       <c r="D18" t="n">
-        <v>1825451.475335151</v>
+        <v>4329846.61428839</v>
       </c>
       <c r="E18" t="n">
-        <v>1861960.504841805</v>
+        <v>4402191.766070902</v>
       </c>
       <c r="F18" t="n">
-        <v>1898469.534348577</v>
+        <v>4474536.917853236</v>
       </c>
       <c r="G18" t="n">
-        <v>1934978.563855231</v>
+        <v>4546882.069635332</v>
       </c>
       <c r="H18" t="n">
-        <v>1971487.593362063</v>
+        <v>4619227.221417904</v>
       </c>
       <c r="I18" t="n">
-        <v>2007996.622868568</v>
+        <v>4691572.373199821</v>
       </c>
       <c r="J18" t="n">
-        <v>2044505.65237537</v>
+        <v>4763917.524982274</v>
       </c>
       <c r="K18" t="n">
-        <v>2081014.681882083</v>
+        <v>4836262.676764607</v>
       </c>
       <c r="L18" t="n">
-        <v>2117523.711388677</v>
+        <v>4908607.828546941</v>
       </c>
       <c r="M18" t="n">
-        <v>2154032.740895391</v>
+        <v>4980952.980329633</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>ИПР Колпино СС</t>
+          <t>ОПП МСК Авто ( Юг)</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>70930.22712987661</v>
+        <v>5262767.811557427</v>
       </c>
       <c r="C19" t="n">
-        <v>66659.49031078815</v>
+        <v>5283545.287178129</v>
       </c>
       <c r="D19" t="n">
-        <v>62388.7534918189</v>
+        <v>5304548.641954303</v>
       </c>
       <c r="E19" t="n">
-        <v>58118.01667276025</v>
+        <v>5325785.564574331</v>
       </c>
       <c r="F19" t="n">
-        <v>53847.2798538506</v>
+        <v>5347262.738481283</v>
       </c>
       <c r="G19" t="n">
-        <v>49576.54303476214</v>
+        <v>5368985.814679176</v>
       </c>
       <c r="H19" t="n">
-        <v>45305.80621579289</v>
+        <v>5390959.389056921</v>
       </c>
       <c r="I19" t="n">
-        <v>41035.06939685345</v>
+        <v>5413186.984299034</v>
       </c>
       <c r="J19" t="n">
-        <v>36764.33257776499</v>
+        <v>5435671.036433816</v>
       </c>
       <c r="K19" t="n">
-        <v>32493.59575870633</v>
+        <v>5458412.886046529</v>
       </c>
       <c r="L19" t="n">
-        <v>28222.85893976688</v>
+        <v>5481412.774167389</v>
       </c>
       <c r="M19" t="n">
-        <v>23952.12212064862</v>
+        <v>5504669.842821449</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>ИПР Костомукша СС</t>
+          <t>ОПП МСК Пром (Север)</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2083675.11674837</v>
+        <v>3956138.750321247</v>
       </c>
       <c r="C20" t="n">
-        <v>2080862.67379798</v>
+        <v>4006621.140562594</v>
       </c>
       <c r="D20" t="n">
-        <v>2076225.073217225</v>
+        <v>4057103.531626426</v>
       </c>
       <c r="E20" t="n">
-        <v>2071839.981269042</v>
+        <v>4107585.923589796</v>
       </c>
       <c r="F20" t="n">
-        <v>2069197.907123396</v>
+        <v>4158068.316526122</v>
       </c>
       <c r="G20" t="n">
-        <v>2065736.712643191</v>
+        <v>4208550.710505016</v>
       </c>
       <c r="H20" t="n">
-        <v>2060798.758011499</v>
+        <v>4259033.10559196</v>
       </c>
       <c r="I20" t="n">
-        <v>2057160.050301315</v>
+        <v>4309515.501848087</v>
       </c>
       <c r="J20" t="n">
-        <v>2054575.700205536</v>
+        <v>4359997.899329901</v>
       </c>
       <c r="K20" t="n">
-        <v>2050349.328495731</v>
+        <v>4410480.29808908</v>
       </c>
       <c r="L20" t="n">
-        <v>2045602.440205452</v>
+        <v>4460962.698172309</v>
       </c>
       <c r="M20" t="n">
-        <v>2042666.764112536</v>
+        <v>4511445.099620968</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>ИПР Олкон</t>
+          <t>ОПП Мурманск</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>1093515.416624699</v>
+        <v>3232606.230079651</v>
       </c>
       <c r="C21" t="n">
-        <v>1100451.06332757</v>
+        <v>3253718.30562973</v>
       </c>
       <c r="D21" t="n">
-        <v>1107865.887521941</v>
+        <v>3274830.202278137</v>
       </c>
       <c r="E21" t="n">
-        <v>1114725.351464804</v>
+        <v>3295942.289413452</v>
       </c>
       <c r="F21" t="n">
-        <v>1121814.560297824</v>
+        <v>3317054.193061829</v>
       </c>
       <c r="G21" t="n">
-        <v>1128818.235227413</v>
+        <v>3338166.255306244</v>
       </c>
       <c r="H21" t="n">
-        <v>1136197.586748857</v>
+        <v>3359278.199310303</v>
       </c>
       <c r="I21" t="n">
-        <v>1143713.899965301</v>
+        <v>3380390.209663391</v>
       </c>
       <c r="J21" t="n">
-        <v>1151278.550597697</v>
+        <v>3401502.212032318</v>
       </c>
       <c r="K21" t="n">
-        <v>1158913.852806263</v>
+        <v>3422614.16324234</v>
       </c>
       <c r="L21" t="n">
-        <v>1166667.200802509</v>
+        <v>3443726.219760895</v>
       </c>
       <c r="M21" t="n">
-        <v>1174491.567881174</v>
+        <v>3464838.127090454</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>ИПР Свеза</t>
+          <t>ОПП Нижний Новгород</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>1157867.576385826</v>
+        <v>11496270.74549007</v>
       </c>
       <c r="C22" t="n">
-        <v>1181989.817560509</v>
+        <v>11666659.75102884</v>
       </c>
       <c r="D22" t="n">
-        <v>1206112.058735222</v>
+        <v>11835984.44892383</v>
       </c>
       <c r="E22" t="n">
-        <v>1230234.29990992</v>
+        <v>12003515.2940532</v>
       </c>
       <c r="F22" t="n">
-        <v>1254356.541084632</v>
+        <v>12172289.94788885</v>
       </c>
       <c r="G22" t="n">
-        <v>1278478.78225939</v>
+        <v>12342734.75222957</v>
       </c>
       <c r="H22" t="n">
-        <v>1302601.023434058</v>
+        <v>12511763.35342449</v>
       </c>
       <c r="I22" t="n">
-        <v>1326723.264608711</v>
+        <v>12679268.20484471</v>
       </c>
       <c r="J22" t="n">
-        <v>1350845.505783439</v>
+        <v>12848341.94891417</v>
       </c>
       <c r="K22" t="n">
-        <v>1374967.746958196</v>
+        <v>13018781.93941581</v>
       </c>
       <c r="L22" t="n">
-        <v>1399089.988132894</v>
+        <v>13187512.38615173</v>
       </c>
       <c r="M22" t="n">
-        <v>1423212.229307562</v>
+        <v>13355051.8756429</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>ИПР Сегежа</t>
+          <t>ОПП НКЗ</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>78628.60828927159</v>
+        <v>10762458.84489089</v>
       </c>
       <c r="C23" t="n">
-        <v>80158.98925109021</v>
+        <v>10980089.36641125</v>
       </c>
       <c r="D23" t="n">
-        <v>81689.37021292374</v>
+        <v>11197720.88320776</v>
       </c>
       <c r="E23" t="n">
-        <v>83219.75117474049</v>
+        <v>11415316.84456298</v>
       </c>
       <c r="F23" t="n">
-        <v>84750.13213657215</v>
+        <v>11632901.24763355</v>
       </c>
       <c r="G23" t="n">
-        <v>86280.51309838891</v>
+        <v>11850511.07999099</v>
       </c>
       <c r="H23" t="n">
-        <v>87810.89406022057</v>
+        <v>12068109.77599758</v>
       </c>
       <c r="I23" t="n">
-        <v>89341.27502204478</v>
+        <v>12285750.31817433</v>
       </c>
       <c r="J23" t="n">
-        <v>90871.65598386899</v>
+        <v>12503319.27307089</v>
       </c>
       <c r="K23" t="n">
-        <v>92402.03694568388</v>
+        <v>12720932.9483005</v>
       </c>
       <c r="L23" t="n">
-        <v>93932.4179075174</v>
+        <v>12938555.18618543</v>
       </c>
       <c r="M23" t="n">
-        <v>95462.79886933416</v>
+        <v>13156188.30474332</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>ИПР Череповец СС</t>
+          <t>ОПП СПб Пром</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>8937143.982312821</v>
+        <v>9829212.10655212</v>
       </c>
       <c r="C24" t="n">
-        <v>8983942.481823541</v>
+        <v>9873610.923398189</v>
       </c>
       <c r="D24" t="n">
-        <v>9030723.750073545</v>
+        <v>9962386.82716281</v>
       </c>
       <c r="E24" t="n">
-        <v>9077491.245315067</v>
+        <v>10243200.40931894</v>
       </c>
       <c r="F24" t="n">
-        <v>9124249.443306975</v>
+        <v>10512127.31491318</v>
       </c>
       <c r="G24" t="n">
-        <v>9171003.506489649</v>
+        <v>10681747.35544558</v>
       </c>
       <c r="H24" t="n">
-        <v>9217758.902507432</v>
+        <v>10895611.61518223</v>
       </c>
       <c r="I24" t="n">
-        <v>9264521.000272319</v>
+        <v>11080747.30585829</v>
       </c>
       <c r="J24" t="n">
-        <v>9311294.673395023</v>
+        <v>11281259.69790006</v>
       </c>
       <c r="K24" t="n">
-        <v>9358083.940244384</v>
+        <v>11476135.47648252</v>
       </c>
       <c r="L24" t="n">
-        <v>9404891.667180419</v>
+        <v>11662893.91499266</v>
       </c>
       <c r="M24" t="n">
-        <v>9451719.35684526</v>
+        <v>11867101.86455682</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
         <is>
-          <t>ИПР Яковлевский СС</t>
+          <t>ОПП СПб Север Авто</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>3544717.530132145</v>
+        <v>7409680.121809721</v>
       </c>
       <c r="C25" t="n">
-        <v>3587622.389879853</v>
+        <v>7564048.457680941</v>
       </c>
       <c r="D25" t="n">
-        <v>3630527.24962759</v>
+        <v>7718416.793552041</v>
       </c>
       <c r="E25" t="n">
-        <v>3673432.109375328</v>
+        <v>7872785.129422784</v>
       </c>
       <c r="F25" t="n">
-        <v>3716336.969123006</v>
+        <v>8027153.465293884</v>
       </c>
       <c r="G25" t="n">
-        <v>3759241.828870744</v>
+        <v>8181521.801164627</v>
       </c>
       <c r="H25" t="n">
-        <v>3802146.688618541</v>
+        <v>8335890.137035608</v>
       </c>
       <c r="I25" t="n">
-        <v>3845051.548366278</v>
+        <v>8490258.472907066</v>
       </c>
       <c r="J25" t="n">
-        <v>3887956.408113867</v>
+        <v>8644626.80877769</v>
       </c>
       <c r="K25" t="n">
-        <v>3930861.267861784</v>
+        <v>8798995.144649386</v>
       </c>
       <c r="L25" t="n">
-        <v>3973766.127609313</v>
+        <v>8953363.480520368</v>
       </c>
       <c r="M25" t="n">
-        <v>4016670.98735702</v>
+        <v>9107731.816390753</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
         <is>
-          <t>ИПР Нижний Тагил</t>
+          <t>ОПП СПб Юг Авто</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>10327166.04435612</v>
+        <v>11499309.37110883</v>
       </c>
       <c r="C26" t="n">
-        <v>10542315.33694688</v>
+        <v>11659996.12340268</v>
       </c>
       <c r="D26" t="n">
-        <v>10757464.62953763</v>
+        <v>11820320.60462067</v>
       </c>
       <c r="E26" t="n">
-        <v>10972613.92212839</v>
+        <v>11981196.98033452</v>
       </c>
       <c r="F26" t="n">
-        <v>11187763.21471912</v>
+        <v>12142005.50027296</v>
       </c>
       <c r="G26" t="n">
-        <v>11402912.50730988</v>
+        <v>12302315.01107693</v>
       </c>
       <c r="H26" t="n">
-        <v>11618061.79990064</v>
+        <v>12463081.18519321</v>
       </c>
       <c r="I26" t="n">
-        <v>11833211.09249138</v>
+        <v>12623990.55992213</v>
       </c>
       <c r="J26" t="n">
-        <v>12048360.38508213</v>
+        <v>12784331.63975877</v>
       </c>
       <c r="K26" t="n">
-        <v>12263509.67767289</v>
+        <v>12944972.35194045</v>
       </c>
       <c r="L26" t="n">
-        <v>12478658.97026365</v>
+        <v>13105947.91351366</v>
       </c>
       <c r="M26" t="n">
-        <v>12693808.2628544</v>
+        <v>13266362.92639896</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="inlineStr">
         <is>
-          <t>ИПР НКЗ</t>
+          <t>ОПП Сургут</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>15104986.00752217</v>
+        <v>5399546.191825271</v>
       </c>
       <c r="C27" t="n">
-        <v>15473385.75358844</v>
+        <v>5512036.737487912</v>
       </c>
       <c r="D27" t="n">
-        <v>15770702.21949098</v>
+        <v>5624527.283150971</v>
       </c>
       <c r="E27" t="n">
-        <v>15997549.98240724</v>
+        <v>5737017.828814507</v>
       </c>
       <c r="F27" t="n">
-        <v>16367938.77661839</v>
+        <v>5849508.37447691</v>
       </c>
       <c r="G27" t="n">
-        <v>16694589.86679432</v>
+        <v>5961998.920140028</v>
       </c>
       <c r="H27" t="n">
-        <v>17012873.30092075</v>
+        <v>6074489.465803504</v>
       </c>
       <c r="I27" t="n">
-        <v>17307708.61355129</v>
+        <v>6186980.011465669</v>
       </c>
       <c r="J27" t="n">
-        <v>17462369.94531456</v>
+        <v>6299470.557129323</v>
       </c>
       <c r="K27" t="n">
-        <v>17956285.68198824</v>
+        <v>6411961.102792442</v>
       </c>
       <c r="L27" t="n">
-        <v>18261395.19428444</v>
+        <v>6524451.648456037</v>
       </c>
       <c r="M27" t="n">
-        <v>18529942.57945418</v>
+        <v>6636942.194118142</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
         <is>
-          <t>ИПР Русал</t>
+          <t>ОПП Хабаровск</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>3552292.563675165</v>
+        <v>14395158.12308955</v>
       </c>
       <c r="C28" t="n">
-        <v>3626298.658751607</v>
+        <v>14695057.25065398</v>
       </c>
       <c r="D28" t="n">
-        <v>3700304.753828287</v>
+        <v>14994956.37821794</v>
       </c>
       <c r="E28" t="n">
-        <v>3774310.848904848</v>
+        <v>15294855.50578284</v>
       </c>
       <c r="F28" t="n">
-        <v>3848316.943981409</v>
+        <v>15594754.63334703</v>
       </c>
       <c r="G28" t="n">
-        <v>3922323.03905797</v>
+        <v>15894653.7609117</v>
       </c>
       <c r="H28" t="n">
-        <v>3996329.134134531</v>
+        <v>16194552.88847613</v>
       </c>
       <c r="I28" t="n">
-        <v>4070335.229211092</v>
+        <v>16494452.01604009</v>
       </c>
       <c r="J28" t="n">
-        <v>4144341.324287534</v>
+        <v>16794351.14360452</v>
       </c>
       <c r="K28" t="n">
-        <v>4218347.419364095</v>
+        <v>17094250.27116871</v>
       </c>
       <c r="L28" t="n">
-        <v>4292353.514440775</v>
+        <v>17394149.39873362</v>
       </c>
       <c r="M28" t="n">
-        <v>4366359.609517336</v>
+        <v>17694048.52629805</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="inlineStr">
         <is>
-          <t>ИПР УГМК</t>
+          <t>Магазин Владивосток</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>6715025.278996468</v>
+        <v>2054087.322760999</v>
       </c>
       <c r="C29" t="n">
-        <v>6854921.63897562</v>
+        <v>2076419.478984326</v>
       </c>
       <c r="D29" t="n">
-        <v>6994817.998954773</v>
+        <v>2088061.606510699</v>
       </c>
       <c r="E29" t="n">
-        <v>7134714.358933449</v>
+        <v>2091081.373257935</v>
       </c>
       <c r="F29" t="n">
-        <v>7274610.718912601</v>
+        <v>2088235.93485266</v>
       </c>
       <c r="G29" t="n">
-        <v>7414507.078891754</v>
+        <v>2082525.478527129</v>
       </c>
       <c r="H29" t="n">
-        <v>7554403.43887043</v>
+        <v>2076779.794131875</v>
       </c>
       <c r="I29" t="n">
-        <v>7694299.798851013</v>
+        <v>2073345.005914927</v>
       </c>
       <c r="J29" t="n">
-        <v>7834196.158829689</v>
+        <v>2073903.975013316</v>
       </c>
       <c r="K29" t="n">
-        <v>7974092.518809319</v>
+        <v>2079430.714317501</v>
       </c>
       <c r="L29" t="n">
-        <v>8113988.878787518</v>
+        <v>2090253.900160909</v>
       </c>
       <c r="M29" t="n">
-        <v>8253885.238768101</v>
+        <v>2106190.917911768</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="inlineStr">
         <is>
-          <t>Менеджер ОРСТП 1</t>
+          <t>Магазин Воронеж</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>49990384.39273071</v>
+        <v>694584.0449443515</v>
       </c>
       <c r="C30" t="n">
-        <v>51031850.73424673</v>
+        <v>711283.6106516169</v>
       </c>
       <c r="D30" t="n">
-        <v>52073317.07576275</v>
+        <v>728022.4877635334</v>
       </c>
       <c r="E30" t="n">
-        <v>53114783.4172771</v>
+        <v>744938.6697375467</v>
       </c>
       <c r="F30" t="n">
-        <v>54156249.75879216</v>
+        <v>761566.3566524275</v>
       </c>
       <c r="G30" t="n">
-        <v>55197716.10030508</v>
+        <v>778422.8547115186</v>
       </c>
       <c r="H30" t="n">
-        <v>56239182.44182348</v>
+        <v>795245.8433320355</v>
       </c>
       <c r="I30" t="n">
-        <v>57280648.78333712</v>
+        <v>811887.175977895</v>
       </c>
       <c r="J30" t="n">
-        <v>58322115.12485361</v>
+        <v>828817.6903297836</v>
       </c>
       <c r="K30" t="n">
-        <v>59363581.46636724</v>
+        <v>845523.5110770278</v>
       </c>
       <c r="L30" t="n">
-        <v>60405047.80788279</v>
+        <v>862255.349578158</v>
       </c>
       <c r="M30" t="n">
-        <v>61446514.14939785</v>
+        <v>879174.8562939037</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="inlineStr">
         <is>
-          <t>Менеджер ОРСТП 2</t>
+          <t>Магазин Казань / ПВЗ Казань</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>40031221.70567122</v>
+        <v>913070.4451681972</v>
       </c>
       <c r="C31" t="n">
-        <v>40308354.84198842</v>
+        <v>932092.7461091876</v>
       </c>
       <c r="D31" t="n">
-        <v>40584454.324104</v>
+        <v>951115.0470502004</v>
       </c>
       <c r="E31" t="n">
-        <v>40858670.29575061</v>
+        <v>970137.3479911983</v>
       </c>
       <c r="F31" t="n">
-        <v>41132532.94193956</v>
+        <v>989159.6489322037</v>
       </c>
       <c r="G31" t="n">
-        <v>41408016.58076779</v>
+        <v>1008181.949873209</v>
       </c>
       <c r="H31" t="n">
-        <v>41685051.47766524</v>
+        <v>1027204.250814222</v>
       </c>
       <c r="I31" t="n">
-        <v>41961599.88442723</v>
+        <v>1046226.551755205</v>
       </c>
       <c r="J31" t="n">
-        <v>42236242.18626052</v>
+        <v>1065248.852696218</v>
       </c>
       <c r="K31" t="n">
-        <v>42509971.39151409</v>
+        <v>1084271.153637223</v>
       </c>
       <c r="L31" t="n">
-        <v>42784929.64174597</v>
+        <v>1103293.454578251</v>
       </c>
       <c r="M31" t="n">
-        <v>43061711.03505196</v>
+        <v>1122315.755519241</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="inlineStr">
         <is>
-          <t>ОПП Владивосток</t>
+          <t>Магазин Кемерово</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>8.311041590484054e-308</v>
+        <v>1973293.925524808</v>
       </c>
       <c r="C32" t="n">
-        <v>8.484188290285804e-308</v>
+        <v>2017873.82651598</v>
       </c>
       <c r="D32" t="n">
-        <v>8.657334990087555e-308</v>
+        <v>2062453.76982148</v>
       </c>
       <c r="E32" t="n">
-        <v>8.830481689889306e-308</v>
+        <v>2107033.631256975</v>
       </c>
       <c r="F32" t="n">
-        <v>9.003628389691058e-308</v>
+        <v>2151613.582473919</v>
       </c>
       <c r="G32" t="n">
-        <v>9.176775089492809e-308</v>
+        <v>2196193.47070013</v>
       </c>
       <c r="H32" t="n">
-        <v>9.349921789294558e-308</v>
+        <v>2240773.370779246</v>
       </c>
       <c r="I32" t="n">
-        <v>9.52306848909631e-308</v>
+        <v>2285353.314724617</v>
       </c>
       <c r="J32" t="n">
-        <v>9.696215188898063e-308</v>
+        <v>2329933.176039696</v>
       </c>
       <c r="K32" t="n">
-        <v>9.869361888699814e-308</v>
+        <v>2374513.126811013</v>
       </c>
       <c r="L32" t="n">
-        <v>1.004250858850157e-307</v>
+        <v>2419093.015876673</v>
       </c>
       <c r="M32" t="n">
-        <v>1.021565528830331e-307</v>
+        <v>2463672.91504699</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="inlineStr">
         <is>
-          <t>ОПП Воронеж</t>
+          <t>Магазин Краснодар</t>
         </is>
       </c>
       <c r="B33" t="n">
-        <v>3391597.587416649</v>
+        <v>2376467.194551215</v>
       </c>
       <c r="C33" t="n">
-        <v>3462255.870487809</v>
+        <v>2425976.927771062</v>
       </c>
       <c r="D33" t="n">
-        <v>3532914.153558999</v>
+        <v>2475486.660990924</v>
       </c>
       <c r="E33" t="n">
-        <v>3603572.436630175</v>
+        <v>2524996.394210726</v>
       </c>
       <c r="F33" t="n">
-        <v>3674230.71970135</v>
+        <v>2574506.127430528</v>
       </c>
       <c r="G33" t="n">
-        <v>3744889.00277254</v>
+        <v>2624015.860650122</v>
       </c>
       <c r="H33" t="n">
-        <v>3815547.285843715</v>
+        <v>2673525.593869984</v>
       </c>
       <c r="I33" t="n">
-        <v>3886205.568914905</v>
+        <v>2723035.327089638</v>
       </c>
       <c r="J33" t="n">
-        <v>3956863.85198608</v>
+        <v>2772545.060309619</v>
       </c>
       <c r="K33" t="n">
-        <v>4027522.135057226</v>
+        <v>2822054.793529421</v>
       </c>
       <c r="L33" t="n">
-        <v>4098180.418128446</v>
+        <v>2871564.526749551</v>
       </c>
       <c r="M33" t="n">
-        <v>4168838.701199576</v>
+        <v>2921074.259968936</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="inlineStr">
         <is>
-          <t>ОПП Казань+Чувашия</t>
+          <t>Магазин Красноярск 1</t>
         </is>
       </c>
       <c r="B34" t="n">
-        <v>9309324.311917782</v>
+        <v>3422670.136275053</v>
       </c>
       <c r="C34" t="n">
-        <v>9557536.752181292</v>
+        <v>3493975.764113903</v>
       </c>
       <c r="D34" t="n">
-        <v>9717503.6693542</v>
+        <v>3565281.391952753</v>
       </c>
       <c r="E34" t="n">
-        <v>9858917.505286932</v>
+        <v>3636587.019791603</v>
       </c>
       <c r="F34" t="n">
-        <v>10177670.1157155</v>
+        <v>3707892.64763093</v>
       </c>
       <c r="G34" t="n">
-        <v>10311626.50813293</v>
+        <v>3779198.275470257</v>
       </c>
       <c r="H34" t="n">
-        <v>10491219.24580765</v>
+        <v>3850503.903308868</v>
       </c>
       <c r="I34" t="n">
-        <v>10715263.10137868</v>
+        <v>3921809.531148195</v>
       </c>
       <c r="J34" t="n">
-        <v>10949271.42899585</v>
+        <v>3993115.158986807</v>
       </c>
       <c r="K34" t="n">
-        <v>11115196.89859962</v>
+        <v>4064420.786826134</v>
       </c>
       <c r="L34" t="n">
-        <v>11257024.39631271</v>
+        <v>4135726.414665461</v>
       </c>
       <c r="M34" t="n">
-        <v>11576680.77158117</v>
+        <v>4207032.042503834</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="inlineStr">
         <is>
-          <t>ОПП Краснодар</t>
+          <t>Магазин МСК 3</t>
         </is>
       </c>
       <c r="B35" t="n">
-        <v>4606503.390531085</v>
+        <v>1706903.732307285</v>
       </c>
       <c r="C35" t="n">
-        <v>4714384.856701858</v>
+        <v>1742464.226730511</v>
       </c>
       <c r="D35" t="n">
-        <v>4822644.914821409</v>
+        <v>1778024.721153632</v>
       </c>
       <c r="E35" t="n">
-        <v>4930985.72581882</v>
+        <v>1813585.215576604</v>
       </c>
       <c r="F35" t="n">
-        <v>5039123.955668464</v>
+        <v>1849145.709999695</v>
       </c>
       <c r="G35" t="n">
-        <v>5146532.209957384</v>
+        <v>1884706.204422876</v>
       </c>
       <c r="H35" t="n">
-        <v>5253852.381546579</v>
+        <v>1920266.698845863</v>
       </c>
       <c r="I35" t="n">
-        <v>5361312.765829287</v>
+        <v>1955827.193269029</v>
       </c>
       <c r="J35" t="n">
-        <v>5468951.041310467</v>
+        <v>1991387.687691957</v>
       </c>
       <c r="K35" t="n">
-        <v>5575311.980713755</v>
+        <v>2026948.182115078</v>
       </c>
       <c r="L35" t="n">
-        <v>5682591.951970562</v>
+        <v>2062508.676537991</v>
       </c>
       <c r="M35" t="n">
-        <v>5790963.842456356</v>
+        <v>2098069.17096132</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="inlineStr">
         <is>
-          <t>ОПП Красноярск</t>
+          <t>Магазин МСК Балашиха</t>
         </is>
       </c>
       <c r="B36" t="n">
-        <v>4136741.75306344</v>
+        <v>1549811.570285509</v>
       </c>
       <c r="C36" t="n">
-        <v>4210032.760722518</v>
+        <v>1571120.344930764</v>
       </c>
       <c r="D36" t="n">
-        <v>4283323.768381596</v>
+        <v>1592426.832432732</v>
       </c>
       <c r="E36" t="n">
-        <v>4356614.776040435</v>
+        <v>1613737.135855752</v>
       </c>
       <c r="F36" t="n">
-        <v>4429905.783699512</v>
+        <v>1635052.625983343</v>
       </c>
       <c r="G36" t="n">
-        <v>4503196.791358531</v>
+        <v>1656368.240964661</v>
       </c>
       <c r="H36" t="n">
-        <v>4576487.799017727</v>
+        <v>1677678.764088396</v>
       </c>
       <c r="I36" t="n">
-        <v>4649778.806676447</v>
+        <v>1698985.293674515</v>
       </c>
       <c r="J36" t="n">
-        <v>4723069.814335465</v>
+        <v>1720293.880602043</v>
       </c>
       <c r="K36" t="n">
-        <v>4796360.821994722</v>
+        <v>1741608.024379097</v>
       </c>
       <c r="L36" t="n">
-        <v>4869651.82965374</v>
+        <v>1762924.332965875</v>
       </c>
       <c r="M36" t="n">
-        <v>4942942.837312698</v>
+        <v>1784236.729396118</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="inlineStr">
         <is>
-          <t>ОПП МСК Авто ( Юг)</t>
+          <t>Магазин МСК Кунцево</t>
         </is>
       </c>
       <c r="B37" t="n">
-        <v>5161936.276087567</v>
+        <v>4650422.115215957</v>
       </c>
       <c r="C37" t="n">
-        <v>5172196.625170697</v>
+        <v>4710009.606623769</v>
       </c>
       <c r="D37" t="n">
-        <v>5182456.974253848</v>
+        <v>4769597.09803164</v>
       </c>
       <c r="E37" t="n">
-        <v>5192717.323337011</v>
+        <v>4829184.589439452</v>
       </c>
       <c r="F37" t="n">
-        <v>5202977.672420155</v>
+        <v>4888772.080847561</v>
       </c>
       <c r="G37" t="n">
-        <v>5213238.021503277</v>
+        <v>4948359.572255611</v>
       </c>
       <c r="H37" t="n">
-        <v>5223498.370586429</v>
+        <v>5007947.063663423</v>
       </c>
       <c r="I37" t="n">
-        <v>5233758.719669554</v>
+        <v>5067534.555071473</v>
       </c>
       <c r="J37" t="n">
-        <v>5244019.068752691</v>
+        <v>5127122.046479285</v>
       </c>
       <c r="K37" t="n">
-        <v>5254279.417835876</v>
+        <v>5186709.537887216</v>
       </c>
       <c r="L37" t="n">
-        <v>5264539.766919028</v>
+        <v>5246297.029295206</v>
       </c>
       <c r="M37" t="n">
-        <v>5274800.116002165</v>
+        <v>5305884.520703316</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="inlineStr">
         <is>
-          <t>ОПП МСК Пром (Север)</t>
+          <t>Магазин Мурманск</t>
         </is>
       </c>
       <c r="B38" t="n">
-        <v>3663412.373033226</v>
+        <v>3966885.08497072</v>
       </c>
       <c r="C38" t="n">
-        <v>3196571.893504918</v>
+        <v>4024109.600961648</v>
       </c>
       <c r="D38" t="n">
-        <v>4305803.10481149</v>
+        <v>4081334.116952583</v>
       </c>
       <c r="E38" t="n">
-        <v>4597596.113650829</v>
+        <v>4138558.632943645</v>
       </c>
       <c r="F38" t="n">
-        <v>4585019.258080721</v>
+        <v>4195783.148934565</v>
       </c>
       <c r="G38" t="n">
-        <v>4513287.244202286</v>
+        <v>4253007.664925627</v>
       </c>
       <c r="H38" t="n">
-        <v>4893256.244676888</v>
+        <v>4310232.180916555</v>
       </c>
       <c r="I38" t="n">
-        <v>5109306.87755993</v>
+        <v>4367456.69690761</v>
       </c>
       <c r="J38" t="n">
-        <v>4960089.838246554</v>
+        <v>4424681.212898657</v>
       </c>
       <c r="K38" t="n">
-        <v>5150425.637794703</v>
+        <v>4481905.72888954</v>
       </c>
       <c r="L38" t="n">
-        <v>5476739.963815778</v>
+        <v>4539130.244880401</v>
       </c>
       <c r="M38" t="n">
-        <v>6135500.336688459</v>
+        <v>4596354.760871522</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="inlineStr">
         <is>
-          <t>ОПП Мурманск</t>
+          <t>Магазин Нижневартовск</t>
         </is>
       </c>
       <c r="B39" t="n">
-        <v>2637897.09526811</v>
+        <v>5926271.776553035</v>
       </c>
       <c r="C39" t="n">
-        <v>2637897.093030029</v>
+        <v>6049735.771897972</v>
       </c>
       <c r="D39" t="n">
-        <v>2637897.090628549</v>
+        <v>6173199.767242759</v>
       </c>
       <c r="E39" t="n">
-        <v>2637897.088063669</v>
+        <v>6296663.762587488</v>
       </c>
       <c r="F39" t="n">
-        <v>2637897.085335392</v>
+        <v>6420127.757932127</v>
       </c>
       <c r="G39" t="n">
-        <v>2637897.082443716</v>
+        <v>6543591.753277361</v>
       </c>
       <c r="H39" t="n">
-        <v>2637897.079388641</v>
+        <v>6667055.748622239</v>
       </c>
       <c r="I39" t="n">
-        <v>2637897.076170168</v>
+        <v>6790519.743966877</v>
       </c>
       <c r="J39" t="n">
-        <v>2637897.072788297</v>
+        <v>6913983.739311755</v>
       </c>
       <c r="K39" t="n">
-        <v>2637897.069243028</v>
+        <v>7037447.734656632</v>
       </c>
       <c r="L39" t="n">
-        <v>2637897.06553436</v>
+        <v>7160911.730001509</v>
       </c>
       <c r="M39" t="n">
-        <v>2637897.061662294</v>
+        <v>7284375.725346506</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="inlineStr">
         <is>
-          <t>ОПП Нижний Новгород</t>
+          <t>Магазин НКЗ</t>
         </is>
       </c>
       <c r="B40" t="n">
-        <v>13008694.2610586</v>
+        <v>5244653.464692879</v>
       </c>
       <c r="C40" t="n">
-        <v>13279708.72483088</v>
+        <v>5313932.418871409</v>
       </c>
       <c r="D40" t="n">
-        <v>13550723.18860282</v>
+        <v>5383183.93356018</v>
       </c>
       <c r="E40" t="n">
-        <v>13821737.65237498</v>
+        <v>5452512.639692197</v>
       </c>
       <c r="F40" t="n">
-        <v>14092752.11614703</v>
+        <v>5521778.158768554</v>
       </c>
       <c r="G40" t="n">
-        <v>14363766.57991908</v>
+        <v>5591040.670999674</v>
       </c>
       <c r="H40" t="n">
-        <v>14634781.04369113</v>
+        <v>5660369.900589621</v>
       </c>
       <c r="I40" t="n">
-        <v>14905795.5074632</v>
+        <v>5729623.807605872</v>
       </c>
       <c r="J40" t="n">
-        <v>15176809.97123501</v>
+        <v>5798899.429467333</v>
       </c>
       <c r="K40" t="n">
-        <v>15447824.4350073</v>
+        <v>5868224.879754717</v>
       </c>
       <c r="L40" t="n">
-        <v>15718838.89877935</v>
+        <v>5937470.114265285</v>
       </c>
       <c r="M40" t="n">
-        <v>15989853.36255153</v>
+        <v>6006759.697369272</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="inlineStr">
         <is>
-          <t>ОПП НКЗ</t>
+          <t>Магазин НН Бурнаковский</t>
         </is>
       </c>
       <c r="B41" t="n">
-        <v>10793334.88757178</v>
+        <v>3057080.654907767</v>
       </c>
       <c r="C41" t="n">
-        <v>11018196.0310629</v>
+        <v>3097145.585053291</v>
       </c>
       <c r="D41" t="n">
-        <v>11243057.17455396</v>
+        <v>3136782.347282056</v>
       </c>
       <c r="E41" t="n">
-        <v>11467918.31804508</v>
+        <v>3176279.444211993</v>
       </c>
       <c r="F41" t="n">
-        <v>11692779.46153611</v>
+        <v>3215990.277987882</v>
       </c>
       <c r="G41" t="n">
-        <v>11917640.60502726</v>
+        <v>3255983.36583888</v>
       </c>
       <c r="H41" t="n">
-        <v>12142501.74851821</v>
+        <v>3295776.438785426</v>
       </c>
       <c r="I41" t="n">
-        <v>12367362.89200933</v>
+        <v>3335315.830306768</v>
       </c>
       <c r="J41" t="n">
-        <v>12592224.03550045</v>
+        <v>3374936.834866889</v>
       </c>
       <c r="K41" t="n">
-        <v>12817085.1789915</v>
+        <v>3414880.428037997</v>
       </c>
       <c r="L41" t="n">
-        <v>13041946.32248259</v>
+        <v>3454800.674504519</v>
       </c>
       <c r="M41" t="n">
-        <v>13266807.46597371</v>
+        <v>3494383.145915031</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="inlineStr">
         <is>
-          <t>ОПП СПб Пром</t>
+          <t>Магазин НН Ларина</t>
         </is>
       </c>
       <c r="B42" t="n">
-        <v>10261655.51681048</v>
+        <v>4976335.997560039</v>
       </c>
       <c r="C42" t="n">
-        <v>10475440.00674397</v>
+        <v>5080009.664175883</v>
       </c>
       <c r="D42" t="n">
-        <v>10689224.49667746</v>
+        <v>5183683.330791742</v>
       </c>
       <c r="E42" t="n">
-        <v>10903008.98661104</v>
+        <v>5287356.997407526</v>
       </c>
       <c r="F42" t="n">
-        <v>11116793.47654462</v>
+        <v>5391030.66402334</v>
       </c>
       <c r="G42" t="n">
-        <v>11330577.96647826</v>
+        <v>5494704.330639228</v>
       </c>
       <c r="H42" t="n">
-        <v>11544362.45641187</v>
+        <v>5598377.997255042</v>
       </c>
       <c r="I42" t="n">
-        <v>11758146.94634521</v>
+        <v>5702051.663870841</v>
       </c>
       <c r="J42" t="n">
-        <v>11971931.43627891</v>
+        <v>5805725.330486685</v>
       </c>
       <c r="K42" t="n">
-        <v>12185715.92621222</v>
+        <v>5909398.997102588</v>
       </c>
       <c r="L42" t="n">
-        <v>12399500.4161458</v>
+        <v>6013072.663718447</v>
       </c>
       <c r="M42" t="n">
-        <v>12613284.90607944</v>
+        <v>6116746.330334142</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="inlineStr">
         <is>
-          <t>ОПП СПб Север Авто</t>
+          <t>Магазин СПб Богатырский</t>
         </is>
       </c>
       <c r="B43" t="n">
-        <v>5764138.262583733</v>
+        <v>3133074.888140261</v>
       </c>
       <c r="C43" t="n">
-        <v>5818766.728702068</v>
+        <v>3490877.814052515</v>
       </c>
       <c r="D43" t="n">
-        <v>5873395.194820642</v>
+        <v>3452042.825198349</v>
       </c>
       <c r="E43" t="n">
-        <v>5928023.660939217</v>
+        <v>3569386.095939223</v>
       </c>
       <c r="F43" t="n">
-        <v>5982652.127058387</v>
+        <v>3548343.261621725</v>
       </c>
       <c r="G43" t="n">
-        <v>6037280.593177438</v>
+        <v>3279311.317151997</v>
       </c>
       <c r="H43" t="n">
-        <v>6091909.059295893</v>
+        <v>3361443.566064499</v>
       </c>
       <c r="I43" t="n">
-        <v>6146537.525414467</v>
+        <v>3711335.045920178</v>
       </c>
       <c r="J43" t="n">
-        <v>6201165.991532922</v>
+        <v>3676373.829268966</v>
       </c>
       <c r="K43" t="n">
-        <v>6255794.457652092</v>
+        <v>3789670.774446096</v>
       </c>
       <c r="L43" t="n">
-        <v>6310422.923770785</v>
+        <v>3766518.106191847</v>
       </c>
       <c r="M43" t="n">
-        <v>6365051.389889359</v>
+        <v>3496661.196292862</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="inlineStr">
         <is>
-          <t>ОПП СПб Юг Авто</t>
+          <t>Магазин СПб Софийская</t>
         </is>
       </c>
       <c r="B44" t="n">
-        <v>13363668.331617</v>
+        <v>5751381.350367992</v>
       </c>
       <c r="C44" t="n">
-        <v>13642078.08852559</v>
+        <v>5802595.552504654</v>
       </c>
       <c r="D44" t="n">
-        <v>13920487.84543419</v>
+        <v>5853067.376074943</v>
       </c>
       <c r="E44" t="n">
-        <v>14198897.60234302</v>
+        <v>5904006.591916074</v>
       </c>
       <c r="F44" t="n">
-        <v>14477307.35925189</v>
+        <v>5954377.489751929</v>
       </c>
       <c r="G44" t="n">
-        <v>14755717.11616045</v>
+        <v>6005440.682904997</v>
       </c>
       <c r="H44" t="n">
-        <v>15034126.87306908</v>
+        <v>6056775.476631109</v>
       </c>
       <c r="I44" t="n">
-        <v>15312536.62997782</v>
+        <v>6106971.210792766</v>
       </c>
       <c r="J44" t="n">
-        <v>15590946.38688663</v>
+        <v>6157993.926131903</v>
       </c>
       <c r="K44" t="n">
-        <v>15869356.14379519</v>
+        <v>6208520.163833634</v>
       </c>
       <c r="L44" t="n">
-        <v>16147765.90070382</v>
+        <v>6259384.790546568</v>
       </c>
       <c r="M44" t="n">
-        <v>16426175.6576128</v>
+        <v>6310222.799661853</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="inlineStr">
         <is>
-          <t>ОПП Сургут</t>
+          <t>Магазин СПб Энергетиков</t>
         </is>
       </c>
       <c r="B45" t="n">
-        <v>5321730.0942626</v>
+        <v>3130243.731769197</v>
       </c>
       <c r="C45" t="n">
-        <v>5432599.471226394</v>
+        <v>3165521.385742612</v>
       </c>
       <c r="D45" t="n">
-        <v>5543468.848190129</v>
+        <v>3200799.039716013</v>
       </c>
       <c r="E45" t="n">
-        <v>5654338.225153983</v>
+        <v>3236076.693689391</v>
       </c>
       <c r="F45" t="n">
-        <v>5765207.602117896</v>
+        <v>3271354.347662821</v>
       </c>
       <c r="G45" t="n">
-        <v>5876076.97908175</v>
+        <v>3306632.001636252</v>
       </c>
       <c r="H45" t="n">
-        <v>5986946.356045306</v>
+        <v>3341909.65560963</v>
       </c>
       <c r="I45" t="n">
-        <v>6097815.73300904</v>
+        <v>3377187.309583068</v>
       </c>
       <c r="J45" t="n">
-        <v>6208685.109972894</v>
+        <v>3412464.963556483</v>
       </c>
       <c r="K45" t="n">
-        <v>6319554.486936629</v>
+        <v>3447742.617529914</v>
       </c>
       <c r="L45" t="n">
-        <v>6430423.86390084</v>
+        <v>3483020.271503322</v>
       </c>
       <c r="M45" t="n">
-        <v>6541293.240864456</v>
+        <v>3518297.925476722</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="inlineStr">
         <is>
-          <t>ОПП Хабаровск</t>
+          <t>Магазин Сургут</t>
         </is>
       </c>
       <c r="B46" t="n">
-        <v>13066172.75819016</v>
+        <v>2281753.48856116</v>
       </c>
       <c r="C46" t="n">
-        <v>13289573.34411597</v>
+        <v>2279401.126252407</v>
       </c>
       <c r="D46" t="n">
-        <v>13512973.93004155</v>
+        <v>2281044.918777206</v>
       </c>
       <c r="E46" t="n">
-        <v>13736374.51596737</v>
+        <v>2274400.790049062</v>
       </c>
       <c r="F46" t="n">
-        <v>13959775.10189295</v>
+        <v>2329351.672374175</v>
       </c>
       <c r="G46" t="n">
-        <v>14183175.68781877</v>
+        <v>2335914.895927316</v>
       </c>
       <c r="H46" t="n">
-        <v>14406576.27374411</v>
+        <v>2337737.776442308</v>
       </c>
       <c r="I46" t="n">
-        <v>14629976.85967064</v>
+        <v>2361734.927574283</v>
       </c>
       <c r="J46" t="n">
-        <v>14853377.44559622</v>
+        <v>2376145.940146155</v>
       </c>
       <c r="K46" t="n">
-        <v>15076778.03152156</v>
+        <v>2341183.91580301</v>
       </c>
       <c r="L46" t="n">
-        <v>15300178.61744761</v>
+        <v>2364277.928551939</v>
       </c>
       <c r="M46" t="n">
-        <v>15523579.20337319</v>
+        <v>2406673.010532178</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="inlineStr">
         <is>
-          <t>Магазин Владивосток</t>
+          <t>Магазин Сургут 2</t>
         </is>
       </c>
       <c r="B47" t="n">
-        <v>1375744.498004258</v>
+        <v>1359612.078287065</v>
       </c>
       <c r="C47" t="n">
-        <v>1404405.841712654</v>
+        <v>1387937.329918027</v>
       </c>
       <c r="D47" t="n">
-        <v>1433067.18542099</v>
+        <v>1416262.581549048</v>
       </c>
       <c r="E47" t="n">
-        <v>1461728.529129326</v>
+        <v>1444587.83318001</v>
       </c>
       <c r="F47" t="n">
-        <v>1490389.872837782</v>
+        <v>1472913.084811002</v>
       </c>
       <c r="G47" t="n">
-        <v>1519051.216546178</v>
+        <v>1501238.336441994</v>
       </c>
       <c r="H47" t="n">
-        <v>1547712.560254633</v>
+        <v>1529563.588072956</v>
       </c>
       <c r="I47" t="n">
-        <v>1576373.903963089</v>
+        <v>1557888.839703947</v>
       </c>
       <c r="J47" t="n">
-        <v>1605035.247671664</v>
+        <v>1586214.091334969</v>
       </c>
       <c r="K47" t="n">
-        <v>1633696.591379881</v>
+        <v>1614539.342965782</v>
       </c>
       <c r="L47" t="n">
-        <v>1662357.935088456</v>
+        <v>1642864.594596893</v>
       </c>
       <c r="M47" t="n">
-        <v>1691019.278796911</v>
+        <v>1671189.846227914</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="inlineStr">
         <is>
-          <t>Магазин Воронеж</t>
+          <t>Магазин Хабаровск Индустриальный</t>
         </is>
       </c>
       <c r="B48" t="n">
-        <v>612695.7173385751</v>
+        <v>5018720.206677601</v>
       </c>
       <c r="C48" t="n">
-        <v>625460.2114498001</v>
+        <v>5107376.223891586</v>
       </c>
       <c r="D48" t="n">
-        <v>638224.70556104</v>
+        <v>5192912.626466781</v>
       </c>
       <c r="E48" t="n">
-        <v>650989.1996722333</v>
+        <v>5275417.040391594</v>
       </c>
       <c r="F48" t="n">
-        <v>663753.6937834565</v>
+        <v>5355047.304548264</v>
       </c>
       <c r="G48" t="n">
-        <v>676518.1878946815</v>
+        <v>5432028.280041412</v>
       </c>
       <c r="H48" t="n">
-        <v>689282.6820058729</v>
+        <v>5506645.806788445</v>
       </c>
       <c r="I48" t="n">
-        <v>702047.176117111</v>
+        <v>5579241.337196827</v>
       </c>
       <c r="J48" t="n">
-        <v>714811.670228336</v>
+        <v>5650203.835587114</v>
       </c>
       <c r="K48" t="n">
-        <v>727576.1643395443</v>
+        <v>5719961.908199668</v>
       </c>
       <c r="L48" t="n">
-        <v>740340.6584507842</v>
+        <v>5788974.216378599</v>
       </c>
       <c r="M48" t="n">
-        <v>753105.1525619645</v>
+        <v>5857719.146638155</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="inlineStr">
         <is>
-          <t>Магазин Казань / ПВЗ Казань</t>
+          <t>ПВЗ Инфор</t>
         </is>
       </c>
       <c r="B49" t="n">
-        <v>921624.5469257385</v>
+        <v>598929.4880523382</v>
       </c>
       <c r="C49" t="n">
-        <v>940825.0583200455</v>
+        <v>611407.1857200952</v>
       </c>
       <c r="D49" t="n">
-        <v>960025.5697143674</v>
+        <v>623884.8833878522</v>
       </c>
       <c r="E49" t="n">
-        <v>979226.0811086148</v>
+        <v>636362.5810556097</v>
       </c>
       <c r="F49" t="n">
-        <v>998426.5925029516</v>
+        <v>648840.2787233664</v>
       </c>
       <c r="G49" t="n">
-        <v>1017627.103897199</v>
+        <v>661317.9763911236</v>
       </c>
       <c r="H49" t="n">
-        <v>1036827.615291521</v>
+        <v>673795.6740588804</v>
       </c>
       <c r="I49" t="n">
-        <v>1056028.126685753</v>
+        <v>686273.3717266376</v>
       </c>
       <c r="J49" t="n">
-        <v>1075228.63808006</v>
+        <v>698751.0693943945</v>
       </c>
       <c r="K49" t="n">
-        <v>1094429.149474382</v>
+        <v>711228.7670621516</v>
       </c>
       <c r="L49" t="n">
-        <v>1113629.660868704</v>
+        <v>723706.4647299092</v>
       </c>
       <c r="M49" t="n">
-        <v>1132830.172262922</v>
+        <v>736184.1623976659</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="inlineStr">
         <is>
-          <t>Магазин Кемерово</t>
+          <t>ПВЗ СПб 4 (Маршал на Северном)</t>
         </is>
       </c>
       <c r="B50" t="n">
-        <v>1811628.727910426</v>
+        <v>2137557.795222402</v>
       </c>
       <c r="C50" t="n">
-        <v>1849370.993075263</v>
+        <v>2182090.249289453</v>
       </c>
       <c r="D50" t="n">
-        <v>1887113.258240003</v>
+        <v>2226622.703356504</v>
       </c>
       <c r="E50" t="n">
-        <v>1924855.523404803</v>
+        <v>2271155.157423735</v>
       </c>
       <c r="F50" t="n">
-        <v>1962597.788569622</v>
+        <v>2315687.611490786</v>
       </c>
       <c r="G50" t="n">
-        <v>2000340.053734448</v>
+        <v>2360220.065557957</v>
       </c>
       <c r="H50" t="n">
-        <v>2038082.318899252</v>
+        <v>2404752.519625127</v>
       </c>
       <c r="I50" t="n">
-        <v>2075824.584064018</v>
+        <v>2449284.973692298</v>
       </c>
       <c r="J50" t="n">
-        <v>2113566.849228818</v>
+        <v>2493817.427759349</v>
       </c>
       <c r="K50" t="n">
-        <v>2151309.114393674</v>
+        <v>2538349.88182646</v>
       </c>
       <c r="L50" t="n">
-        <v>2189051.379558448</v>
+        <v>2582882.335893512</v>
       </c>
       <c r="M50" t="n">
-        <v>2226793.644723237</v>
+        <v>2627414.789960742</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="inlineStr">
         <is>
-          <t>Магазин Краснодар</t>
+          <t>ПВЗ СПб 5 (Маршал на Жукова)</t>
         </is>
       </c>
       <c r="B51" t="n">
-        <v>2413466.665842779</v>
+        <v>2562422.809840813</v>
       </c>
       <c r="C51" t="n">
-        <v>2495496.375045631</v>
+        <v>2415346.209808946</v>
       </c>
       <c r="D51" t="n">
-        <v>2525711.273408277</v>
+        <v>2327764.870568633</v>
       </c>
       <c r="E51" t="n">
-        <v>2604200.194423188</v>
+        <v>2294171.73308903</v>
       </c>
       <c r="F51" t="n">
-        <v>2642049.021311745</v>
+        <v>2298995.695179507</v>
       </c>
       <c r="G51" t="n">
-        <v>2709913.831483481</v>
+        <v>2326188.148003429</v>
       </c>
       <c r="H51" t="n">
-        <v>2761301.530838003</v>
+        <v>2364049.952208132</v>
       </c>
       <c r="I51" t="n">
-        <v>2814683.000258313</v>
+        <v>2406058.794819146</v>
       </c>
       <c r="J51" t="n">
-        <v>2880950.321900653</v>
+        <v>2449376.881677687</v>
       </c>
       <c r="K51" t="n">
-        <v>2920477.103122305</v>
+        <v>2493030.468359306</v>
       </c>
       <c r="L51" t="n">
-        <v>2998138.786963621</v>
+        <v>2536753.900898978</v>
       </c>
       <c r="M51" t="n">
-        <v>3028992.855151709</v>
-      </c>
-    </row>
-    <row r="52">
-      <c r="A52" s="1" t="inlineStr">
-        <is>
-          <t>Магазин Красноярск 1</t>
-        </is>
-      </c>
-      <c r="B52" t="n">
-        <v>3356205.983137546</v>
-      </c>
-      <c r="C52" t="n">
-        <v>3426126.94111958</v>
-      </c>
-      <c r="D52" t="n">
-        <v>3496047.899101622</v>
-      </c>
-      <c r="E52" t="n">
-        <v>3565968.857083645</v>
-      </c>
-      <c r="F52" t="n">
-        <v>3635889.815065674</v>
-      </c>
-      <c r="G52" t="n">
-        <v>3705810.773047714</v>
-      </c>
-      <c r="H52" t="n">
-        <v>3775731.731029747</v>
-      </c>
-      <c r="I52" t="n">
-        <v>3845652.689011768</v>
-      </c>
-      <c r="J52" t="n">
-        <v>3915573.646993808</v>
-      </c>
-      <c r="K52" t="n">
-        <v>3985494.604975846</v>
-      </c>
-      <c r="L52" t="n">
-        <v>4055415.562957874</v>
-      </c>
-      <c r="M52" t="n">
-        <v>4125336.520939905</v>
-      </c>
-    </row>
-    <row r="53">
-      <c r="A53" s="1" t="inlineStr">
-        <is>
-          <t>Магазин МСК 3</t>
-        </is>
-      </c>
-      <c r="B53" t="n">
-        <v>1815301.74347502</v>
-      </c>
-      <c r="C53" t="n">
-        <v>1861476.579171188</v>
-      </c>
-      <c r="D53" t="n">
-        <v>1906671.659726523</v>
-      </c>
-      <c r="E53" t="n">
-        <v>1950885.40286193</v>
-      </c>
-      <c r="F53" t="n">
-        <v>1997449.676980305</v>
-      </c>
-      <c r="G53" t="n">
-        <v>2041725.500069555</v>
-      </c>
-      <c r="H53" t="n">
-        <v>2086824.162439659</v>
-      </c>
-      <c r="I53" t="n">
-        <v>2133071.608545713</v>
-      </c>
-      <c r="J53" t="n">
-        <v>2176906.335688487</v>
-      </c>
-      <c r="K53" t="n">
-        <v>2222940.891522229</v>
-      </c>
-      <c r="L53" t="n">
-        <v>2268324.882914379</v>
-      </c>
-      <c r="M53" t="n">
-        <v>2312417.80330459</v>
-      </c>
-    </row>
-    <row r="54">
-      <c r="A54" s="1" t="inlineStr">
-        <is>
-          <t>Магазин МСК Балашиха</t>
-        </is>
-      </c>
-      <c r="B54" t="n">
-        <v>1497009.180148188</v>
-      </c>
-      <c r="C54" t="n">
-        <v>1515674.601934232</v>
-      </c>
-      <c r="D54" t="n">
-        <v>1534340.023720264</v>
-      </c>
-      <c r="E54" t="n">
-        <v>1553005.445506308</v>
-      </c>
-      <c r="F54" t="n">
-        <v>1571670.867292352</v>
-      </c>
-      <c r="G54" t="n">
-        <v>1590336.289078366</v>
-      </c>
-      <c r="H54" t="n">
-        <v>1609001.710864399</v>
-      </c>
-      <c r="I54" t="n">
-        <v>1627667.132650454</v>
-      </c>
-      <c r="J54" t="n">
-        <v>1646332.554436471</v>
-      </c>
-      <c r="K54" t="n">
-        <v>1664997.976222493</v>
-      </c>
-      <c r="L54" t="n">
-        <v>1683663.39800854</v>
-      </c>
-      <c r="M54" t="n">
-        <v>1702328.819794547</v>
-      </c>
-    </row>
-    <row r="55">
-      <c r="A55" s="1" t="inlineStr">
-        <is>
-          <t>Магазин МСК Кунцево</t>
-        </is>
-      </c>
-      <c r="B55" t="n">
-        <v>4476809.718329363</v>
-      </c>
-      <c r="C55" t="n">
-        <v>4528496.638705134</v>
-      </c>
-      <c r="D55" t="n">
-        <v>4580171.367888957</v>
-      </c>
-      <c r="E55" t="n">
-        <v>4631772.623657919</v>
-      </c>
-      <c r="F55" t="n">
-        <v>4683358.846368618</v>
-      </c>
-      <c r="G55" t="n">
-        <v>4735002.974353947</v>
-      </c>
-      <c r="H55" t="n">
-        <v>4786613.439686291</v>
-      </c>
-      <c r="I55" t="n">
-        <v>4838218.635837972</v>
-      </c>
-      <c r="J55" t="n">
-        <v>4889848.652852021</v>
-      </c>
-      <c r="K55" t="n">
-        <v>4941537.266990155</v>
-      </c>
-      <c r="L55" t="n">
-        <v>4993211.403146408</v>
-      </c>
-      <c r="M55" t="n">
-        <v>5044779.816434547</v>
-      </c>
-    </row>
-    <row r="56">
-      <c r="A56" s="1" t="inlineStr">
-        <is>
-          <t>Магазин Мурманск</t>
-        </is>
-      </c>
-      <c r="B56" t="n">
-        <v>3910434.348223679</v>
-      </c>
-      <c r="C56" t="n">
-        <v>3967112.967042767</v>
-      </c>
-      <c r="D56" t="n">
-        <v>4023793.417881049</v>
-      </c>
-      <c r="E56" t="n">
-        <v>4080476.949596062</v>
-      </c>
-      <c r="F56" t="n">
-        <v>4137152.86060679</v>
-      </c>
-      <c r="G56" t="n">
-        <v>4193832.543762691</v>
-      </c>
-      <c r="H56" t="n">
-        <v>4250512.023169696</v>
-      </c>
-      <c r="I56" t="n">
-        <v>4307191.411070719</v>
-      </c>
-      <c r="J56" t="n">
-        <v>4363870.112440288</v>
-      </c>
-      <c r="K56" t="n">
-        <v>4420551.087748453</v>
-      </c>
-      <c r="L56" t="n">
-        <v>4477232.517394528</v>
-      </c>
-      <c r="M56" t="n">
-        <v>4533912.057973832</v>
-      </c>
-    </row>
-    <row r="57">
-      <c r="A57" s="1" t="inlineStr">
-        <is>
-          <t>Магазин Нижневартовск</t>
-        </is>
-      </c>
-      <c r="B57" t="n">
-        <v>5795812.969758928</v>
-      </c>
-      <c r="C57" t="n">
-        <v>5916559.073295474</v>
-      </c>
-      <c r="D57" t="n">
-        <v>6037305.176832229</v>
-      </c>
-      <c r="E57" t="n">
-        <v>6158051.280368865</v>
-      </c>
-      <c r="F57" t="n">
-        <v>6278797.38390553</v>
-      </c>
-      <c r="G57" t="n">
-        <v>6399543.487441927</v>
-      </c>
-      <c r="H57" t="n">
-        <v>6520289.59097892</v>
-      </c>
-      <c r="I57" t="n">
-        <v>6641035.694515198</v>
-      </c>
-      <c r="J57" t="n">
-        <v>6761781.798052311</v>
-      </c>
-      <c r="K57" t="n">
-        <v>6882527.901588559</v>
-      </c>
-      <c r="L57" t="n">
-        <v>7003274.005125463</v>
-      </c>
-      <c r="M57" t="n">
-        <v>7124020.108662367</v>
-      </c>
-    </row>
-    <row r="58">
-      <c r="A58" s="1" t="inlineStr">
-        <is>
-          <t>Магазин НКЗ</t>
-        </is>
-      </c>
-      <c r="B58" t="n">
-        <v>5184798.226115882</v>
-      </c>
-      <c r="C58" t="n">
-        <v>5253434.575243056</v>
-      </c>
-      <c r="D58" t="n">
-        <v>5322070.92437005</v>
-      </c>
-      <c r="E58" t="n">
-        <v>5390707.273497164</v>
-      </c>
-      <c r="F58" t="n">
-        <v>5459343.62262404</v>
-      </c>
-      <c r="G58" t="n">
-        <v>5527979.971751213</v>
-      </c>
-      <c r="H58" t="n">
-        <v>5596616.320878208</v>
-      </c>
-      <c r="I58" t="n">
-        <v>5665252.670005322</v>
-      </c>
-      <c r="J58" t="n">
-        <v>5733889.019132376</v>
-      </c>
-      <c r="K58" t="n">
-        <v>5802525.36825949</v>
-      </c>
-      <c r="L58" t="n">
-        <v>5871161.717386425</v>
-      </c>
-      <c r="M58" t="n">
-        <v>5939798.066513538</v>
-      </c>
-    </row>
-    <row r="59">
-      <c r="A59" s="1" t="inlineStr">
-        <is>
-          <t>Магазин НН Бурнаковский</t>
-        </is>
-      </c>
-      <c r="B59" t="n">
-        <v>3003928.092360407</v>
-      </c>
-      <c r="C59" t="n">
-        <v>3042409.781910058</v>
-      </c>
-      <c r="D59" t="n">
-        <v>3081011.059064694</v>
-      </c>
-      <c r="E59" t="n">
-        <v>3119320.945692521</v>
-      </c>
-      <c r="F59" t="n">
-        <v>3157901.134552933</v>
-      </c>
-      <c r="G59" t="n">
-        <v>3196411.058602076</v>
-      </c>
-      <c r="H59" t="n">
-        <v>3234744.681090167</v>
-      </c>
-      <c r="I59" t="n">
-        <v>3273384.454324303</v>
-      </c>
-      <c r="J59" t="n">
-        <v>3311790.915820204</v>
-      </c>
-      <c r="K59" t="n">
-        <v>3350203.397031842</v>
-      </c>
-      <c r="L59" t="n">
-        <v>3388841.121439945</v>
-      </c>
-      <c r="M59" t="n">
-        <v>3427171.454296138</v>
-      </c>
-    </row>
-    <row r="60">
-      <c r="A60" s="1" t="inlineStr">
-        <is>
-          <t>Магазин НН Ларина</t>
-        </is>
-      </c>
-      <c r="B60" t="n">
-        <v>4015588.896566022</v>
-      </c>
-      <c r="C60" t="n">
-        <v>4061805.671086393</v>
-      </c>
-      <c r="D60" t="n">
-        <v>4108022.445606772</v>
-      </c>
-      <c r="E60" t="n">
-        <v>4154239.220127188</v>
-      </c>
-      <c r="F60" t="n">
-        <v>4200455.994647488</v>
-      </c>
-      <c r="G60" t="n">
-        <v>4246672.769167885</v>
-      </c>
-      <c r="H60" t="n">
-        <v>4292889.54368826</v>
-      </c>
-      <c r="I60" t="n">
-        <v>4339106.318208635</v>
-      </c>
-      <c r="J60" t="n">
-        <v>4385323.092729025</v>
-      </c>
-      <c r="K60" t="n">
-        <v>4431539.867249362</v>
-      </c>
-      <c r="L60" t="n">
-        <v>4477756.641769744</v>
-      </c>
-      <c r="M60" t="n">
-        <v>4523973.416290089</v>
-      </c>
-    </row>
-    <row r="61">
-      <c r="A61" s="1" t="inlineStr">
-        <is>
-          <t>Магазин СПб Богатырский</t>
-        </is>
-      </c>
-      <c r="B61" t="n">
-        <v>2526051.441347706</v>
-      </c>
-      <c r="C61" t="n">
-        <v>2526051.441347706</v>
-      </c>
-      <c r="D61" t="n">
-        <v>2526051.441347706</v>
-      </c>
-      <c r="E61" t="n">
-        <v>2526051.441347706</v>
-      </c>
-      <c r="F61" t="n">
-        <v>2526051.441347706</v>
-      </c>
-      <c r="G61" t="n">
-        <v>2526051.441347706</v>
-      </c>
-      <c r="H61" t="n">
-        <v>2526051.441347706</v>
-      </c>
-      <c r="I61" t="n">
-        <v>2526051.441347706</v>
-      </c>
-      <c r="J61" t="n">
-        <v>2526051.441347706</v>
-      </c>
-      <c r="K61" t="n">
-        <v>2526051.441347706</v>
-      </c>
-      <c r="L61" t="n">
-        <v>2526051.441347706</v>
-      </c>
-      <c r="M61" t="n">
-        <v>2526051.441347706</v>
-      </c>
-    </row>
-    <row r="62">
-      <c r="A62" s="1" t="inlineStr">
-        <is>
-          <t>Магазин СПб Софийская</t>
-        </is>
-      </c>
-      <c r="B62" t="n">
-        <v>5689968.849590711</v>
-      </c>
-      <c r="C62" t="n">
-        <v>5738698.070445985</v>
-      </c>
-      <c r="D62" t="n">
-        <v>5787427.291301332</v>
-      </c>
-      <c r="E62" t="n">
-        <v>5836156.512156658</v>
-      </c>
-      <c r="F62" t="n">
-        <v>5884885.733011931</v>
-      </c>
-      <c r="G62" t="n">
-        <v>5933614.953867249</v>
-      </c>
-      <c r="H62" t="n">
-        <v>5982344.174722508</v>
-      </c>
-      <c r="I62" t="n">
-        <v>6031073.395577863</v>
-      </c>
-      <c r="J62" t="n">
-        <v>6079802.616433218</v>
-      </c>
-      <c r="K62" t="n">
-        <v>6128531.837288618</v>
-      </c>
-      <c r="L62" t="n">
-        <v>6177261.058143929</v>
-      </c>
-      <c r="M62" t="n">
-        <v>6225990.27899918</v>
-      </c>
-    </row>
-    <row r="63">
-      <c r="A63" s="1" t="inlineStr">
-        <is>
-          <t>Магазин СПб Энергетиков</t>
-        </is>
-      </c>
-      <c r="B63" t="n">
-        <v>2206309.598605759</v>
-      </c>
-      <c r="C63" t="n">
-        <v>2206309.603420353</v>
-      </c>
-      <c r="D63" t="n">
-        <v>2206309.606691102</v>
-      </c>
-      <c r="E63" t="n">
-        <v>2206309.604277298</v>
-      </c>
-      <c r="F63" t="n">
-        <v>2206309.599234773</v>
-      </c>
-      <c r="G63" t="n">
-        <v>2206309.59794727</v>
-      </c>
-      <c r="H63" t="n">
-        <v>2206309.602044743</v>
-      </c>
-      <c r="I63" t="n">
-        <v>2206309.606339868</v>
-      </c>
-      <c r="J63" t="n">
-        <v>2206309.605395096</v>
-      </c>
-      <c r="K63" t="n">
-        <v>2206309.600406491</v>
-      </c>
-      <c r="L63" t="n">
-        <v>2206309.597689534</v>
-      </c>
-      <c r="M63" t="n">
-        <v>2206309.600683843</v>
-      </c>
-    </row>
-    <row r="64">
-      <c r="A64" s="1" t="inlineStr">
-        <is>
-          <t>Магазин Сургут</t>
-        </is>
-      </c>
-      <c r="B64" t="n">
-        <v>2248169.276576757</v>
-      </c>
-      <c r="C64" t="n">
-        <v>2257001.39735496</v>
-      </c>
-      <c r="D64" t="n">
-        <v>2265833.518133163</v>
-      </c>
-      <c r="E64" t="n">
-        <v>2274665.638911247</v>
-      </c>
-      <c r="F64" t="n">
-        <v>2283497.759689331</v>
-      </c>
-      <c r="G64" t="n">
-        <v>2292329.880467474</v>
-      </c>
-      <c r="H64" t="n">
-        <v>2301162.001245558</v>
-      </c>
-      <c r="I64" t="n">
-        <v>2309994.122023493</v>
-      </c>
-      <c r="J64" t="n">
-        <v>2318826.242801875</v>
-      </c>
-      <c r="K64" t="n">
-        <v>2327658.363580048</v>
-      </c>
-      <c r="L64" t="n">
-        <v>2336490.484358132</v>
-      </c>
-      <c r="M64" t="n">
-        <v>2345322.605136156</v>
-      </c>
-    </row>
-    <row r="65">
-      <c r="A65" s="1" t="inlineStr">
-        <is>
-          <t>Магазин Сургут 2</t>
-        </is>
-      </c>
-      <c r="B65" t="n">
-        <v>1270573.247991271</v>
-      </c>
-      <c r="C65" t="n">
-        <v>1297043.523991082</v>
-      </c>
-      <c r="D65" t="n">
-        <v>1323513.7999909</v>
-      </c>
-      <c r="E65" t="n">
-        <v>1349984.075990725</v>
-      </c>
-      <c r="F65" t="n">
-        <v>1376454.351990551</v>
-      </c>
-      <c r="G65" t="n">
-        <v>1402924.627990361</v>
-      </c>
-      <c r="H65" t="n">
-        <v>1429394.903990179</v>
-      </c>
-      <c r="I65" t="n">
-        <v>1455865.179989997</v>
-      </c>
-      <c r="J65" t="n">
-        <v>1482335.455989812</v>
-      </c>
-      <c r="K65" t="n">
-        <v>1508805.731989633</v>
-      </c>
-      <c r="L65" t="n">
-        <v>1535276.007989451</v>
-      </c>
-      <c r="M65" t="n">
-        <v>1561746.283989266</v>
-      </c>
-    </row>
-    <row r="66">
-      <c r="A66" s="1" t="inlineStr">
-        <is>
-          <t>Магазин Хабаровск Индустриальный</t>
-        </is>
-      </c>
-      <c r="B66" t="n">
-        <v>4745039.709393561</v>
-      </c>
-      <c r="C66" t="n">
-        <v>4831631.738739073</v>
-      </c>
-      <c r="D66" t="n">
-        <v>4918223.768084586</v>
-      </c>
-      <c r="E66" t="n">
-        <v>5004815.797429979</v>
-      </c>
-      <c r="F66" t="n">
-        <v>5091407.826775551</v>
-      </c>
-      <c r="G66" t="n">
-        <v>5177999.856121004</v>
-      </c>
-      <c r="H66" t="n">
-        <v>5264591.885466516</v>
-      </c>
-      <c r="I66" t="n">
-        <v>5351183.914811969</v>
-      </c>
-      <c r="J66" t="n">
-        <v>5437775.944157481</v>
-      </c>
-      <c r="K66" t="n">
-        <v>5524367.973502994</v>
-      </c>
-      <c r="L66" t="n">
-        <v>5610960.002848446</v>
-      </c>
-      <c r="M66" t="n">
-        <v>5697552.03219378</v>
-      </c>
-    </row>
-    <row r="67">
-      <c r="A67" s="1" t="inlineStr">
-        <is>
-          <t>ПВЗ Инфор</t>
-        </is>
-      </c>
-      <c r="B67" t="n">
-        <v>589128.1587969661</v>
-      </c>
-      <c r="C67" t="n">
-        <v>601401.6621052176</v>
-      </c>
-      <c r="D67" t="n">
-        <v>613675.1654134914</v>
-      </c>
-      <c r="E67" t="n">
-        <v>625948.6687217653</v>
-      </c>
-      <c r="F67" t="n">
-        <v>638222.1720300317</v>
-      </c>
-      <c r="G67" t="n">
-        <v>650495.675338313</v>
-      </c>
-      <c r="H67" t="n">
-        <v>662769.1786465719</v>
-      </c>
-      <c r="I67" t="n">
-        <v>675042.6819548607</v>
-      </c>
-      <c r="J67" t="n">
-        <v>687316.1852631196</v>
-      </c>
-      <c r="K67" t="n">
-        <v>699589.6885713786</v>
-      </c>
-      <c r="L67" t="n">
-        <v>711863.1918796599</v>
-      </c>
-      <c r="M67" t="n">
-        <v>724136.6951879114</v>
-      </c>
-    </row>
-    <row r="68">
-      <c r="A68" s="1" t="inlineStr">
-        <is>
-          <t>ПВЗ СПб 4 (Маршал на Северном)</t>
-        </is>
-      </c>
-      <c r="B68" t="n">
-        <v>2027022.041096717</v>
-      </c>
-      <c r="C68" t="n">
-        <v>2069251.666952968</v>
-      </c>
-      <c r="D68" t="n">
-        <v>2111481.292809069</v>
-      </c>
-      <c r="E68" t="n">
-        <v>2153710.918665275</v>
-      </c>
-      <c r="F68" t="n">
-        <v>2195940.544521481</v>
-      </c>
-      <c r="G68" t="n">
-        <v>2238170.170377642</v>
-      </c>
-      <c r="H68" t="n">
-        <v>2280399.796233848</v>
-      </c>
-      <c r="I68" t="n">
-        <v>2322629.422090009</v>
-      </c>
-      <c r="J68" t="n">
-        <v>2364859.047946185</v>
-      </c>
-      <c r="K68" t="n">
-        <v>2407088.673802376</v>
-      </c>
-      <c r="L68" t="n">
-        <v>2449318.299658567</v>
-      </c>
-      <c r="M68" t="n">
-        <v>2491547.925514743</v>
-      </c>
-    </row>
-    <row r="69">
-      <c r="A69" s="1" t="inlineStr">
-        <is>
-          <t>ПВЗ СПб 5 (Маршал на Жукова)</t>
-        </is>
-      </c>
-      <c r="B69" t="n">
-        <v>1915681.796465397</v>
-      </c>
-      <c r="C69" t="n">
-        <v>1955591.833891869</v>
-      </c>
-      <c r="D69" t="n">
-        <v>1995501.871318102</v>
-      </c>
-      <c r="E69" t="n">
-        <v>2035411.908744454</v>
-      </c>
-      <c r="F69" t="n">
-        <v>2075321.946170926</v>
-      </c>
-      <c r="G69" t="n">
-        <v>2115231.983597159</v>
-      </c>
-      <c r="H69" t="n">
-        <v>2155142.021023631</v>
-      </c>
-      <c r="I69" t="n">
-        <v>2195052.058449984</v>
-      </c>
-      <c r="J69" t="n">
-        <v>2234962.095876217</v>
-      </c>
-      <c r="K69" t="n">
-        <v>2274872.133302689</v>
-      </c>
-      <c r="L69" t="n">
-        <v>2314782.17072916</v>
-      </c>
-      <c r="M69" t="n">
-        <v>2354692.208155513</v>
-      </c>
-    </row>
-    <row r="70">
-      <c r="A70" s="1" t="inlineStr">
-        <is>
-          <t>Отдел Ковригин  (Kz)</t>
-        </is>
-      </c>
-      <c r="B70" t="n">
-        <v>2388141.065345764</v>
-      </c>
-      <c r="C70" t="n">
-        <v>2437894.004206896</v>
-      </c>
-      <c r="D70" t="n">
-        <v>2487646.943068027</v>
-      </c>
-      <c r="E70" t="n">
-        <v>2537399.881929398</v>
-      </c>
-      <c r="F70" t="n">
-        <v>2587152.820790768</v>
-      </c>
-      <c r="G70" t="n">
-        <v>2636905.759652376</v>
-      </c>
-      <c r="H70" t="n">
-        <v>2686658.698513508</v>
-      </c>
-      <c r="I70" t="n">
-        <v>2736411.637374878</v>
-      </c>
-      <c r="J70" t="n">
-        <v>2786164.576236248</v>
-      </c>
-      <c r="K70" t="n">
-        <v>2835917.515097857</v>
-      </c>
-      <c r="L70" t="n">
-        <v>2885670.453958988</v>
-      </c>
-      <c r="M70" t="n">
-        <v>2935423.392820597</v>
-      </c>
-    </row>
-    <row r="71">
-      <c r="A71" s="1" t="inlineStr">
-        <is>
-          <t>Отдел Концевой</t>
-        </is>
-      </c>
-      <c r="B71" t="n">
-        <v>19194302.45464167</v>
-      </c>
-      <c r="C71" t="n">
-        <v>19594183.75578005</v>
-      </c>
-      <c r="D71" t="n">
-        <v>19994065.05691842</v>
-      </c>
-      <c r="E71" t="n">
-        <v>20393946.35805678</v>
-      </c>
-      <c r="F71" t="n">
-        <v>20793827.65919514</v>
-      </c>
-      <c r="G71" t="n">
-        <v>21193708.96033352</v>
-      </c>
-      <c r="H71" t="n">
-        <v>21593590.2614719</v>
-      </c>
-      <c r="I71" t="n">
-        <v>21993471.56261026</v>
-      </c>
-      <c r="J71" t="n">
-        <v>22393352.86374862</v>
-      </c>
-      <c r="K71" t="n">
-        <v>22793234.16488699</v>
-      </c>
-      <c r="L71" t="n">
-        <v>23193115.46602537</v>
-      </c>
-      <c r="M71" t="n">
-        <v>23592996.76716374</v>
-      </c>
-    </row>
-    <row r="72">
-      <c r="A72" s="1" t="inlineStr">
-        <is>
-          <t>Отдел Мараев (АлРоса)</t>
-        </is>
-      </c>
-      <c r="B72" t="n">
-        <v>5618432.914084554</v>
-      </c>
-      <c r="C72" t="n">
-        <v>5715426.978114158</v>
-      </c>
-      <c r="D72" t="n">
-        <v>5813801.7988998</v>
-      </c>
-      <c r="E72" t="n">
-        <v>5913189.895078838</v>
-      </c>
-      <c r="F72" t="n">
-        <v>6013259.567272604</v>
-      </c>
-      <c r="G72" t="n">
-        <v>6113997.818888098</v>
-      </c>
-      <c r="H72" t="n">
-        <v>6214562.211462766</v>
-      </c>
-      <c r="I72" t="n">
-        <v>6314863.412357211</v>
-      </c>
-      <c r="J72" t="n">
-        <v>6414165.323607415</v>
-      </c>
-      <c r="K72" t="n">
-        <v>6512255.529087901</v>
-      </c>
-      <c r="L72" t="n">
-        <v>6609164.54882583</v>
-      </c>
-      <c r="M72" t="n">
-        <v>6704502.91230914</v>
-      </c>
-    </row>
-    <row r="73">
-      <c r="A73" s="1" t="inlineStr">
-        <is>
-          <t>Отдел Мищенко (МетИнв)</t>
-        </is>
-      </c>
-      <c r="B73" t="n">
-        <v>4611739.251495361</v>
-      </c>
-      <c r="C73" t="n">
-        <v>4707817.15256834</v>
-      </c>
-      <c r="D73" t="n">
-        <v>4803895.053640842</v>
-      </c>
-      <c r="E73" t="n">
-        <v>4899972.954713821</v>
-      </c>
-      <c r="F73" t="n">
-        <v>4996050.8557868</v>
-      </c>
-      <c r="G73" t="n">
-        <v>5092128.756859303</v>
-      </c>
-      <c r="H73" t="n">
-        <v>5188206.657932281</v>
-      </c>
-      <c r="I73" t="n">
-        <v>5284284.55900526</v>
-      </c>
-      <c r="J73" t="n">
-        <v>5380362.460077763</v>
-      </c>
-      <c r="K73" t="n">
-        <v>5476440.361150742</v>
-      </c>
-      <c r="L73" t="n">
-        <v>5572518.262223721</v>
-      </c>
-      <c r="M73" t="n">
-        <v>5668596.163296223</v>
-      </c>
-    </row>
-    <row r="74">
-      <c r="A74" s="1" t="inlineStr">
-        <is>
-          <t>Отдел Попов</t>
-        </is>
-      </c>
-      <c r="B74" t="n">
-        <v>15180513.2902619</v>
-      </c>
-      <c r="C74" t="n">
-        <v>15180513.2902619</v>
-      </c>
-      <c r="D74" t="n">
-        <v>15180513.2902619</v>
-      </c>
-      <c r="E74" t="n">
-        <v>15180513.2902619</v>
-      </c>
-      <c r="F74" t="n">
-        <v>15180513.2902619</v>
-      </c>
-      <c r="G74" t="n">
-        <v>15180513.2902619</v>
-      </c>
-      <c r="H74" t="n">
-        <v>15180513.2902619</v>
-      </c>
-      <c r="I74" t="n">
-        <v>15180513.2902619</v>
-      </c>
-      <c r="J74" t="n">
-        <v>15180513.2902619</v>
-      </c>
-      <c r="K74" t="n">
-        <v>15180513.2902619</v>
-      </c>
-      <c r="L74" t="n">
-        <v>15180513.2902619</v>
-      </c>
-      <c r="M74" t="n">
-        <v>15180513.2902619</v>
-      </c>
-    </row>
-    <row r="75">
-      <c r="A75" s="1" t="inlineStr">
-        <is>
-          <t>Отдел Филиппов</t>
-        </is>
-      </c>
-      <c r="B75" t="n">
-        <v>25650343.82294416</v>
-      </c>
-      <c r="C75" t="n">
-        <v>26206112.42585427</v>
-      </c>
-      <c r="D75" t="n">
-        <v>26707564.62741343</v>
-      </c>
-      <c r="E75" t="n">
-        <v>27263253.26530429</v>
-      </c>
-      <c r="F75" t="n">
-        <v>27762236.71736021</v>
-      </c>
-      <c r="G75" t="n">
-        <v>28314694.09163207</v>
-      </c>
-      <c r="H75" t="n">
-        <v>28814502.84829219</v>
-      </c>
-      <c r="I75" t="n">
-        <v>29361756.0629639</v>
-      </c>
-      <c r="J75" t="n">
-        <v>29865017.04824706</v>
-      </c>
-      <c r="K75" t="n">
-        <v>30404066.20502166</v>
-      </c>
-      <c r="L75" t="n">
-        <v>30918516.8671449</v>
-      </c>
-      <c r="M75" t="n">
-        <v>31446454.44752881</v>
-      </c>
-    </row>
-    <row r="76">
-      <c r="A76" s="1" t="inlineStr">
-        <is>
-          <t>Отдел Шугай (Русал)</t>
-        </is>
-      </c>
-      <c r="B76" t="n">
-        <v>3552292.563675165</v>
-      </c>
-      <c r="C76" t="n">
-        <v>3626298.658751607</v>
-      </c>
-      <c r="D76" t="n">
-        <v>3700304.753828287</v>
-      </c>
-      <c r="E76" t="n">
-        <v>3774310.848904848</v>
-      </c>
-      <c r="F76" t="n">
-        <v>3848316.943981409</v>
-      </c>
-      <c r="G76" t="n">
-        <v>3922323.03905797</v>
-      </c>
-      <c r="H76" t="n">
-        <v>3996329.134134531</v>
-      </c>
-      <c r="I76" t="n">
-        <v>4070335.229211092</v>
-      </c>
-      <c r="J76" t="n">
-        <v>4144341.324287534</v>
-      </c>
-      <c r="K76" t="n">
-        <v>4218347.419364095</v>
-      </c>
-      <c r="L76" t="n">
-        <v>4292353.514440775</v>
-      </c>
-      <c r="M76" t="n">
-        <v>4366359.609517336</v>
-      </c>
-    </row>
-    <row r="77">
-      <c r="A77" s="1" t="inlineStr">
-        <is>
-          <t>Отдел Ясиновер (УГМК)</t>
-        </is>
-      </c>
-      <c r="B77" t="n">
-        <v>6746871.723100662</v>
-      </c>
-      <c r="C77" t="n">
-        <v>6887431.550664425</v>
-      </c>
-      <c r="D77" t="n">
-        <v>7027991.378228664</v>
-      </c>
-      <c r="E77" t="n">
-        <v>7168551.205792427</v>
-      </c>
-      <c r="F77" t="n">
-        <v>7309111.033358574</v>
-      </c>
-      <c r="G77" t="n">
-        <v>7449670.860922337</v>
-      </c>
-      <c r="H77" t="n">
-        <v>7590230.688487053</v>
-      </c>
-      <c r="I77" t="n">
-        <v>7730790.516051769</v>
-      </c>
-      <c r="J77" t="n">
-        <v>7871350.343616009</v>
-      </c>
-      <c r="K77" t="n">
-        <v>8011910.171180725</v>
-      </c>
-      <c r="L77" t="n">
-        <v>8152469.998744965</v>
-      </c>
-      <c r="M77" t="n">
-        <v>8293029.826309204</v>
+        <v>2580489.165299624</v>
       </c>
     </row>
   </sheetData>
